--- a/equal-costs_rand-topology_multiple-dest_50-100-200-400-nodes.xlsx
+++ b/equal-costs_rand-topology_multiple-dest_50-100-200-400-nodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F267B7BA-DFCF-4C1C-AB05-F7A61E8701E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC8BFA-5452-4CA0-956B-256448660A53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +222,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,23 +244,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>378460</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144540</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>216925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D545F49C-18BE-47D0-A98B-F394785DC068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86429B16-E29D-4A19-8A01-2567FA72054C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,96 +276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="4603750"/>
-          <a:ext cx="5864860" cy="3090940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585478</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DA1CA4-A148-4E22-8F61-7B45EE1CF954}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="184150"/>
-          <a:ext cx="3023878" cy="4212701"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305196</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C44C7D-E87B-44F9-AF12-D9442F47BF07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="4603750"/>
-          <a:ext cx="4572396" cy="3066554"/>
+          <a:off x="234950" y="190500"/>
+          <a:ext cx="3029975" cy="4194412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,16 +295,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>329477</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>118900</xdr:rowOff>
+      <xdr:colOff>335573</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagem 17">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB9F0F9-D76B-4327-B4C0-6B213E91DA5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2AEE8B-91DE-43BB-9C9A-2EE5B89578C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,7 +313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -402,7 +321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="184150"/>
-          <a:ext cx="3377477" cy="3249450"/>
+          <a:ext cx="3383573" cy="3414056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,16 +339,104 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>164818</xdr:colOff>
+      <xdr:colOff>170914</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120154</xdr:rowOff>
+      <xdr:rowOff>101864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagem 23">
+        <xdr:cNvPr id="8" name="Imagem 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5824E884-5E2D-4CC9-840D-AA7626063AF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B80DA2A-79F2-453E-B489-5996F0F3B7B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="184150"/>
+          <a:ext cx="2609314" cy="3048264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565039</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDF41F9-F4F9-4652-8702-B3EFB2CD84A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4603750"/>
+          <a:ext cx="4584589" cy="3414056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>384557</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>150636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDEE204-DEDD-43F2-9705-79FF4A34465E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,8 +452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="184150"/>
-          <a:ext cx="2603218" cy="3066554"/>
+          <a:off x="5486400" y="4603750"/>
+          <a:ext cx="5870957" cy="3097036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,26 +961,26 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>22.045999999999999</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>200</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>207</v>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6.476</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>198</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>208</v>
       </c>
       <c r="S3" s="5">
         <v>1</v>
@@ -1054,26 +1061,26 @@
         <f>J3+1</f>
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>23.07</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>204</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>213</v>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>10.475</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2</v>
+      </c>
+      <c r="O4" s="11">
+        <v>211</v>
+      </c>
+      <c r="P4" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>211</v>
       </c>
       <c r="S4" s="5">
         <f>S3+1</f>
@@ -1156,26 +1163,26 @@
         <f t="shared" ref="J5:J68" si="1">J4+1</f>
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>21.475000000000001</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>212</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>226</v>
+      <c r="K5" s="11">
+        <v>2</v>
+      </c>
+      <c r="L5" s="11">
+        <v>5</v>
+      </c>
+      <c r="M5" s="11">
+        <v>8.516</v>
+      </c>
+      <c r="N5" s="11">
+        <v>2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>209</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>221</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ref="S5:S68" si="2">S4+1</f>
@@ -1258,26 +1265,26 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>22.603999999999999</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>202</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>211</v>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>4</v>
+      </c>
+      <c r="M6" s="11">
+        <v>7.3220000000000001</v>
+      </c>
+      <c r="N6" s="11">
+        <v>2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>215</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>227</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="2"/>
@@ -1360,26 +1367,26 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>22.044</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3</v>
+      </c>
+      <c r="M7" s="11">
+        <v>6.4480000000000004</v>
+      </c>
+      <c r="N7" s="11">
+        <v>2</v>
+      </c>
+      <c r="O7" s="11">
         <v>204</v>
       </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>205</v>
+      <c r="P7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>204</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="2"/>
@@ -1462,26 +1469,26 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>22.815999999999999</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>205</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>211</v>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>4</v>
+      </c>
+      <c r="M8" s="11">
+        <v>8.2379999999999995</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11">
+        <v>201</v>
+      </c>
+      <c r="P8" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>202</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="2"/>
@@ -1564,26 +1571,26 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>29.256</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>214</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>214</v>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>4</v>
+      </c>
+      <c r="M9" s="11">
+        <v>8.89</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2</v>
+      </c>
+      <c r="O9" s="11">
+        <v>215</v>
+      </c>
+      <c r="P9" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>215</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="2"/>
@@ -1666,26 +1673,26 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>21.963999999999999</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>207</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>207</v>
+      <c r="K10" s="11">
+        <v>2</v>
+      </c>
+      <c r="L10" s="11">
+        <v>4</v>
+      </c>
+      <c r="M10" s="11">
+        <v>6.76</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2</v>
+      </c>
+      <c r="O10" s="11">
+        <v>209</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>217</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="2"/>
@@ -1768,26 +1775,26 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>31.77</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>208</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>219</v>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>3</v>
+      </c>
+      <c r="M11" s="11">
+        <v>6.976</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2</v>
+      </c>
+      <c r="O11" s="11">
+        <v>217</v>
+      </c>
+      <c r="P11" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>217</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="2"/>
@@ -1870,26 +1877,26 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>32.191000000000003</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>204</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>217</v>
+      <c r="K12" s="11">
+        <v>3</v>
+      </c>
+      <c r="L12" s="11">
+        <v>4</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6.3879999999999999</v>
+      </c>
+      <c r="N12" s="11">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11">
+        <v>202</v>
+      </c>
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>214</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="2"/>
@@ -1972,26 +1979,26 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>28.347000000000001</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>198</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>200</v>
+      <c r="K13" s="11">
+        <v>2</v>
+      </c>
+      <c r="L13" s="11">
+        <v>4</v>
+      </c>
+      <c r="M13" s="11">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="N13" s="11">
+        <v>3</v>
+      </c>
+      <c r="O13" s="11">
+        <v>210</v>
+      </c>
+      <c r="P13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>213</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="2"/>
@@ -2074,26 +2081,26 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>30.498000000000001</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>208</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>220</v>
+      <c r="K14" s="11">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11">
+        <v>4</v>
+      </c>
+      <c r="M14" s="11">
+        <v>8.0579999999999998</v>
+      </c>
+      <c r="N14" s="11">
+        <v>3</v>
+      </c>
+      <c r="O14" s="11">
+        <v>211</v>
+      </c>
+      <c r="P14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>212</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="2"/>
@@ -2176,26 +2183,26 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>33.741</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>213</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>215</v>
+      <c r="K15" s="11">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11">
+        <v>5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>8.5909999999999993</v>
+      </c>
+      <c r="N15" s="11">
+        <v>2</v>
+      </c>
+      <c r="O15" s="11">
+        <v>202</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>211</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="2"/>
@@ -2278,26 +2285,26 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>36.326000000000001</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>202</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>202</v>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>4</v>
+      </c>
+      <c r="M16" s="11">
+        <v>8.7439999999999998</v>
+      </c>
+      <c r="N16" s="11">
+        <v>2</v>
+      </c>
+      <c r="O16" s="11">
+        <v>212</v>
+      </c>
+      <c r="P16" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>212</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="2"/>
@@ -2380,26 +2387,26 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <v>32.115000000000002</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>205</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>208</v>
+      <c r="K17" s="11">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>4</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8.4280000000000008</v>
+      </c>
+      <c r="N17" s="11">
+        <v>3</v>
+      </c>
+      <c r="O17" s="11">
+        <v>211</v>
+      </c>
+      <c r="P17" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>212</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="2"/>
@@ -2482,26 +2489,26 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>29.245999999999999</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>201</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>213</v>
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>3</v>
+      </c>
+      <c r="M18" s="11">
+        <v>6.782</v>
+      </c>
+      <c r="N18" s="11">
+        <v>3</v>
+      </c>
+      <c r="O18" s="11">
+        <v>208</v>
+      </c>
+      <c r="P18" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>209</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="2"/>
@@ -2584,26 +2591,26 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>29.236999999999998</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>213</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19">
-        <v>215</v>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11">
+        <v>3</v>
+      </c>
+      <c r="M19" s="11">
+        <v>6.9130000000000003</v>
+      </c>
+      <c r="N19" s="11">
+        <v>2</v>
+      </c>
+      <c r="O19" s="11">
+        <v>211</v>
+      </c>
+      <c r="P19" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>211</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="2"/>
@@ -2686,26 +2693,26 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>42.941000000000003</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>204</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>206</v>
+      <c r="K20" s="11">
+        <v>3</v>
+      </c>
+      <c r="L20" s="11">
+        <v>5</v>
+      </c>
+      <c r="M20" s="11">
+        <v>9.0960000000000001</v>
+      </c>
+      <c r="N20" s="11">
+        <v>3</v>
+      </c>
+      <c r="O20" s="11">
+        <v>209</v>
+      </c>
+      <c r="P20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>222</v>
       </c>
       <c r="S20" s="5">
         <f t="shared" si="2"/>
@@ -2788,26 +2795,26 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>32.198</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>207</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>216</v>
+      <c r="K21" s="11">
+        <v>2</v>
+      </c>
+      <c r="L21" s="11">
+        <v>4</v>
+      </c>
+      <c r="M21" s="11">
+        <v>7.14</v>
+      </c>
+      <c r="N21" s="11">
+        <v>2</v>
+      </c>
+      <c r="O21" s="11">
+        <v>206</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>214</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="2"/>
@@ -2890,26 +2897,26 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <v>31.065000000000001</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>195</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>195</v>
+      <c r="K22" s="11">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>4</v>
+      </c>
+      <c r="M22" s="11">
+        <v>6.827</v>
+      </c>
+      <c r="N22" s="11">
+        <v>2</v>
+      </c>
+      <c r="O22" s="11">
+        <v>202</v>
+      </c>
+      <c r="P22" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>214</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="2"/>
@@ -2992,26 +2999,26 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23">
-        <v>42.944000000000003</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>211</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>214</v>
+      <c r="K23" s="11">
+        <v>2</v>
+      </c>
+      <c r="L23" s="11">
+        <v>5</v>
+      </c>
+      <c r="M23" s="11">
+        <v>8.4060000000000006</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2</v>
+      </c>
+      <c r="O23" s="11">
+        <v>198</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>212</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="2"/>
@@ -3094,26 +3101,26 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>23.568999999999999</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>207</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>219</v>
+      <c r="K24" s="11">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>4</v>
+      </c>
+      <c r="M24" s="11">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="N24" s="11">
+        <v>3</v>
+      </c>
+      <c r="O24" s="11">
+        <v>201</v>
+      </c>
+      <c r="P24" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>202</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
@@ -3196,26 +3203,26 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>24.742999999999999</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25">
+      <c r="K25" s="11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11">
+        <v>4</v>
+      </c>
+      <c r="M25" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N25" s="11">
+        <v>2</v>
+      </c>
+      <c r="O25" s="11">
         <v>212</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>225</v>
+      <c r="P25" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>212</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="2"/>
@@ -3298,26 +3305,26 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>27.280999999999999</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>212</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26">
-        <v>213</v>
+      <c r="K26" s="11">
+        <v>2</v>
+      </c>
+      <c r="L26" s="11">
+        <v>4</v>
+      </c>
+      <c r="M26" s="11">
+        <v>9.0969999999999995</v>
+      </c>
+      <c r="N26" s="11">
+        <v>3</v>
+      </c>
+      <c r="O26" s="11">
+        <v>208</v>
+      </c>
+      <c r="P26" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>209</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="2"/>
@@ -3400,26 +3407,26 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>30.654</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>204</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>215</v>
+      <c r="K27" s="11">
+        <v>3</v>
+      </c>
+      <c r="L27" s="11">
+        <v>4</v>
+      </c>
+      <c r="M27" s="11">
+        <v>6.9820000000000002</v>
+      </c>
+      <c r="N27" s="11">
+        <v>3</v>
+      </c>
+      <c r="O27" s="11">
+        <v>209</v>
+      </c>
+      <c r="P27" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>218</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="2"/>
@@ -3502,26 +3509,26 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>28.574999999999999</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>216</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>216</v>
+      <c r="K28" s="11">
+        <v>3</v>
+      </c>
+      <c r="L28" s="11">
+        <v>4</v>
+      </c>
+      <c r="M28" s="11">
+        <v>6.883</v>
+      </c>
+      <c r="N28" s="11">
+        <v>3</v>
+      </c>
+      <c r="O28" s="11">
+        <v>215</v>
+      </c>
+      <c r="P28" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>224</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="2"/>
@@ -3604,26 +3611,26 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="M29">
-        <v>23.268999999999998</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29">
-        <v>215</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>225</v>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
+        <v>5</v>
+      </c>
+      <c r="M29" s="11">
+        <v>10.359</v>
+      </c>
+      <c r="N29" s="11">
+        <v>2</v>
+      </c>
+      <c r="O29" s="11">
+        <v>209</v>
+      </c>
+      <c r="P29" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>209</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="2"/>
@@ -3706,26 +3713,26 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>24.219000000000001</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>209</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>209</v>
+      <c r="K30" s="11">
+        <v>4</v>
+      </c>
+      <c r="L30" s="11">
+        <v>5</v>
+      </c>
+      <c r="M30" s="11">
+        <v>8.9760000000000009</v>
+      </c>
+      <c r="N30" s="11">
+        <v>4</v>
+      </c>
+      <c r="O30" s="11">
+        <v>204</v>
+      </c>
+      <c r="P30" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>216</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="2"/>
@@ -3808,26 +3815,26 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31">
-        <v>35.731999999999999</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
-        <v>210</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>223</v>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11">
+        <v>3</v>
+      </c>
+      <c r="M31" s="11">
+        <v>6.931</v>
+      </c>
+      <c r="N31" s="11">
+        <v>2</v>
+      </c>
+      <c r="O31" s="11">
+        <v>196</v>
+      </c>
+      <c r="P31" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>196</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="2"/>
@@ -3910,26 +3917,26 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32">
-        <v>30.367000000000001</v>
-      </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32">
-        <v>216</v>
-      </c>
-      <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="Q32">
-        <v>217</v>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>3</v>
+      </c>
+      <c r="M32" s="11">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="N32" s="11">
+        <v>2</v>
+      </c>
+      <c r="O32" s="11">
+        <v>209</v>
+      </c>
+      <c r="P32" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>209</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="2"/>
@@ -4012,26 +4019,26 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33">
-        <v>28.405999999999999</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>213</v>
-      </c>
-      <c r="P33">
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <v>213</v>
+      <c r="K33" s="11">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11">
+        <v>4</v>
+      </c>
+      <c r="M33" s="11">
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="N33" s="11">
+        <v>2</v>
+      </c>
+      <c r="O33" s="11">
+        <v>197</v>
+      </c>
+      <c r="P33" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>209</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="2"/>
@@ -4114,26 +4121,26 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>5</v>
-      </c>
-      <c r="M34">
-        <v>33.902000000000001</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>196</v>
-      </c>
-      <c r="P34">
-        <v>2</v>
-      </c>
-      <c r="Q34">
-        <v>197</v>
+      <c r="K34" s="11">
+        <v>2</v>
+      </c>
+      <c r="L34" s="11">
+        <v>6</v>
+      </c>
+      <c r="M34" s="11">
+        <v>13.587999999999999</v>
+      </c>
+      <c r="N34" s="11">
+        <v>2</v>
+      </c>
+      <c r="O34" s="11">
+        <v>208</v>
+      </c>
+      <c r="P34" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>214</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="2"/>
@@ -4216,26 +4223,26 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>28.736000000000001</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35">
-        <v>204</v>
-      </c>
-      <c r="P35">
-        <v>2</v>
-      </c>
-      <c r="Q35">
-        <v>204</v>
+      <c r="K35" s="11">
+        <v>2</v>
+      </c>
+      <c r="L35" s="11">
+        <v>4</v>
+      </c>
+      <c r="M35" s="11">
+        <v>8.9209999999999994</v>
+      </c>
+      <c r="N35" s="11">
+        <v>2</v>
+      </c>
+      <c r="O35" s="11">
+        <v>209</v>
+      </c>
+      <c r="P35" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>218</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="2"/>
@@ -4318,26 +4325,26 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>5</v>
-      </c>
-      <c r="M36">
-        <v>35.658000000000001</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="O36">
-        <v>212</v>
-      </c>
-      <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="Q36">
-        <v>213</v>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>3</v>
+      </c>
+      <c r="M36" s="11">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="N36" s="11">
+        <v>2</v>
+      </c>
+      <c r="O36" s="11">
+        <v>209</v>
+      </c>
+      <c r="P36" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>209</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="2"/>
@@ -4420,26 +4427,26 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37">
-        <v>31.94</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37">
+      <c r="K37" s="11">
+        <v>2</v>
+      </c>
+      <c r="L37" s="11">
+        <v>4</v>
+      </c>
+      <c r="M37" s="11">
+        <v>8.7089999999999996</v>
+      </c>
+      <c r="N37" s="11">
+        <v>3</v>
+      </c>
+      <c r="O37" s="11">
         <v>210</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>226</v>
+      <c r="P37" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>212</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="2"/>
@@ -4522,26 +4529,26 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="M38">
-        <v>29.817</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>222</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>232</v>
+      <c r="K38" s="11">
+        <v>3</v>
+      </c>
+      <c r="L38" s="11">
+        <v>4</v>
+      </c>
+      <c r="M38" s="11">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="N38" s="11">
+        <v>3</v>
+      </c>
+      <c r="O38" s="11">
+        <v>196</v>
+      </c>
+      <c r="P38" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>213</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" si="2"/>
@@ -4624,26 +4631,26 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39">
-        <v>29.952000000000002</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>204</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>222</v>
+      <c r="K39" s="11">
+        <v>2</v>
+      </c>
+      <c r="L39" s="11">
+        <v>4</v>
+      </c>
+      <c r="M39" s="11">
+        <v>6.5140000000000002</v>
+      </c>
+      <c r="N39" s="11">
+        <v>2</v>
+      </c>
+      <c r="O39" s="11">
+        <v>203</v>
+      </c>
+      <c r="P39" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>209</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="2"/>
@@ -4726,26 +4733,26 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-      <c r="M40">
-        <v>30.501000000000001</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="O40">
-        <v>202</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>215</v>
+      <c r="K40" s="11">
+        <v>2</v>
+      </c>
+      <c r="L40" s="11">
+        <v>3</v>
+      </c>
+      <c r="M40" s="11">
+        <v>6.45</v>
+      </c>
+      <c r="N40" s="11">
+        <v>3</v>
+      </c>
+      <c r="O40" s="11">
+        <v>213</v>
+      </c>
+      <c r="P40" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>214</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="2"/>
@@ -4828,26 +4835,26 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>22.858000000000001</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>212</v>
-      </c>
-      <c r="P41">
-        <v>2</v>
-      </c>
-      <c r="Q41">
-        <v>213</v>
+      <c r="K41" s="11">
+        <v>3</v>
+      </c>
+      <c r="L41" s="11">
+        <v>5</v>
+      </c>
+      <c r="M41" s="11">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="N41" s="11">
+        <v>3</v>
+      </c>
+      <c r="O41" s="11">
+        <v>209</v>
+      </c>
+      <c r="P41" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>222</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="2"/>
@@ -4930,26 +4937,26 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>22.806000000000001</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="O42">
-        <v>200</v>
-      </c>
-      <c r="P42">
-        <v>2</v>
-      </c>
-      <c r="Q42">
-        <v>202</v>
+      <c r="K42" s="11">
+        <v>2</v>
+      </c>
+      <c r="L42" s="11">
+        <v>4</v>
+      </c>
+      <c r="M42" s="11">
+        <v>9.1709999999999994</v>
+      </c>
+      <c r="N42" s="11">
+        <v>3</v>
+      </c>
+      <c r="O42" s="11">
+        <v>213</v>
+      </c>
+      <c r="P42" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>215</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="2"/>
@@ -5032,26 +5039,26 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>23.414999999999999</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-      <c r="O43">
-        <v>205</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>214</v>
+      <c r="K43" s="11">
+        <v>2</v>
+      </c>
+      <c r="L43" s="11">
+        <v>4</v>
+      </c>
+      <c r="M43" s="11">
+        <v>7.3040000000000003</v>
+      </c>
+      <c r="N43" s="11">
+        <v>2</v>
+      </c>
+      <c r="O43" s="11">
+        <v>212</v>
+      </c>
+      <c r="P43" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>222</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="2"/>
@@ -5134,26 +5141,26 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>21.939</v>
-      </c>
-      <c r="N44">
-        <v>2</v>
-      </c>
-      <c r="O44">
-        <v>197</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>205</v>
+      <c r="K44" s="11">
+        <v>2</v>
+      </c>
+      <c r="L44" s="11">
+        <v>4</v>
+      </c>
+      <c r="M44" s="11">
+        <v>8.2560000000000002</v>
+      </c>
+      <c r="N44" s="11">
+        <v>3</v>
+      </c>
+      <c r="O44" s="11">
+        <v>213</v>
+      </c>
+      <c r="P44" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>214</v>
       </c>
       <c r="S44" s="5">
         <f t="shared" si="2"/>
@@ -5236,26 +5243,26 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <v>28.818999999999999</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>214</v>
-      </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>215</v>
+      <c r="K45" s="11">
+        <v>3</v>
+      </c>
+      <c r="L45" s="11">
+        <v>4</v>
+      </c>
+      <c r="M45" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="N45" s="11">
+        <v>3</v>
+      </c>
+      <c r="O45" s="11">
+        <v>207</v>
+      </c>
+      <c r="P45" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>222</v>
       </c>
       <c r="S45" s="5">
         <f t="shared" si="2"/>
@@ -5338,26 +5345,26 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>23.062000000000001</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>214</v>
-      </c>
-      <c r="P46">
-        <v>2</v>
-      </c>
-      <c r="Q46">
-        <v>214</v>
+      <c r="K46" s="11">
+        <v>2</v>
+      </c>
+      <c r="L46" s="11">
+        <v>6</v>
+      </c>
+      <c r="M46" s="11">
+        <v>11.826000000000001</v>
+      </c>
+      <c r="N46" s="11">
+        <v>3</v>
+      </c>
+      <c r="O46" s="11">
+        <v>219</v>
+      </c>
+      <c r="P46" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>220</v>
       </c>
       <c r="S46" s="5">
         <f t="shared" si="2"/>
@@ -5440,25 +5447,25 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>24.588999999999999</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>206</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
+      <c r="K47" s="11">
+        <v>1</v>
+      </c>
+      <c r="L47" s="11">
+        <v>4</v>
+      </c>
+      <c r="M47" s="11">
+        <v>8.4179999999999993</v>
+      </c>
+      <c r="N47" s="11">
+        <v>2</v>
+      </c>
+      <c r="O47" s="11">
+        <v>214</v>
+      </c>
+      <c r="P47" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="11">
         <v>214</v>
       </c>
       <c r="S47" s="5">
@@ -5542,26 +5549,26 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>25.710999999999999</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>208</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>218</v>
+      <c r="K48" s="11">
+        <v>2</v>
+      </c>
+      <c r="L48" s="11">
+        <v>5</v>
+      </c>
+      <c r="M48" s="11">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="N48" s="11">
+        <v>3</v>
+      </c>
+      <c r="O48" s="11">
+        <v>203</v>
+      </c>
+      <c r="P48" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>205</v>
       </c>
       <c r="S48" s="5">
         <f t="shared" si="2"/>
@@ -5644,26 +5651,26 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49">
-        <v>28.439</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="O49">
-        <v>216</v>
-      </c>
-      <c r="P49">
-        <v>2</v>
-      </c>
-      <c r="Q49">
-        <v>216</v>
+      <c r="K49" s="11">
+        <v>2</v>
+      </c>
+      <c r="L49" s="11">
+        <v>6</v>
+      </c>
+      <c r="M49" s="11">
+        <v>10.863</v>
+      </c>
+      <c r="N49" s="11">
+        <v>2</v>
+      </c>
+      <c r="O49" s="11">
+        <v>207</v>
+      </c>
+      <c r="P49" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>220</v>
       </c>
       <c r="S49" s="5">
         <f t="shared" si="2"/>
@@ -5746,26 +5753,26 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50">
-        <v>29.125</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-      <c r="O50">
-        <v>219</v>
-      </c>
-      <c r="P50">
-        <v>2</v>
-      </c>
-      <c r="Q50">
-        <v>221</v>
+      <c r="K50" s="11">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11">
+        <v>4</v>
+      </c>
+      <c r="M50" s="11">
+        <v>8.3070000000000004</v>
+      </c>
+      <c r="N50" s="11">
+        <v>2</v>
+      </c>
+      <c r="O50" s="11">
+        <v>212</v>
+      </c>
+      <c r="P50" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>212</v>
       </c>
       <c r="S50" s="5">
         <f t="shared" si="2"/>
@@ -5848,25 +5855,25 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K51">
-        <v>3</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>24.908999999999999</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51">
-        <v>204</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
+      <c r="K51" s="11">
+        <v>2</v>
+      </c>
+      <c r="L51" s="11">
+        <v>3</v>
+      </c>
+      <c r="M51" s="11">
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="N51" s="11">
+        <v>3</v>
+      </c>
+      <c r="O51" s="11">
+        <v>214</v>
+      </c>
+      <c r="P51" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="11">
         <v>215</v>
       </c>
       <c r="S51" s="5">
@@ -5950,26 +5957,26 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
-      <c r="M52">
-        <v>26.221</v>
-      </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
-      <c r="O52">
-        <v>210</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>224</v>
+      <c r="K52" s="11">
+        <v>1</v>
+      </c>
+      <c r="L52" s="11">
+        <v>3</v>
+      </c>
+      <c r="M52" s="11">
+        <v>6.6459999999999999</v>
+      </c>
+      <c r="N52" s="11">
+        <v>2</v>
+      </c>
+      <c r="O52" s="11">
+        <v>206</v>
+      </c>
+      <c r="P52" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>206</v>
       </c>
       <c r="S52" s="5">
         <f t="shared" si="2"/>
@@ -6052,26 +6059,26 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>3</v>
-      </c>
-      <c r="M53">
-        <v>22.385999999999999</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53">
-        <v>215</v>
-      </c>
-      <c r="P53">
-        <v>2</v>
-      </c>
-      <c r="Q53">
-        <v>216</v>
+      <c r="K53" s="11">
+        <v>3</v>
+      </c>
+      <c r="L53" s="11">
+        <v>5</v>
+      </c>
+      <c r="M53" s="11">
+        <v>9.2530000000000001</v>
+      </c>
+      <c r="N53" s="11">
+        <v>3</v>
+      </c>
+      <c r="O53" s="11">
+        <v>220</v>
+      </c>
+      <c r="P53" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>235</v>
       </c>
       <c r="S53" s="5">
         <f t="shared" si="2"/>
@@ -6154,26 +6161,26 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>4</v>
-      </c>
-      <c r="M54">
-        <v>28.068000000000001</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>213</v>
-      </c>
-      <c r="P54">
-        <v>2</v>
-      </c>
-      <c r="Q54">
-        <v>213</v>
+      <c r="K54" s="11">
+        <v>2</v>
+      </c>
+      <c r="L54" s="11">
+        <v>5</v>
+      </c>
+      <c r="M54" s="11">
+        <v>9.1760000000000002</v>
+      </c>
+      <c r="N54" s="11">
+        <v>2</v>
+      </c>
+      <c r="O54" s="11">
+        <v>210</v>
+      </c>
+      <c r="P54" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>219</v>
       </c>
       <c r="S54" s="5">
         <f t="shared" si="2"/>
@@ -6256,26 +6263,26 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <v>25.152000000000001</v>
-      </c>
-      <c r="N55">
-        <v>2</v>
-      </c>
-      <c r="O55">
-        <v>219</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>230</v>
+      <c r="K55" s="11">
+        <v>2</v>
+      </c>
+      <c r="L55" s="11">
+        <v>4</v>
+      </c>
+      <c r="M55" s="11">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="N55" s="11">
+        <v>3</v>
+      </c>
+      <c r="O55" s="11">
+        <v>203</v>
+      </c>
+      <c r="P55" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>204</v>
       </c>
       <c r="S55" s="5">
         <f t="shared" si="2"/>
@@ -6358,26 +6365,26 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56">
-        <v>5</v>
-      </c>
-      <c r="M56">
-        <v>36.280999999999999</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <v>199</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>210</v>
+      <c r="K56" s="11">
+        <v>2</v>
+      </c>
+      <c r="L56" s="11">
+        <v>4</v>
+      </c>
+      <c r="M56" s="11">
+        <v>7.452</v>
+      </c>
+      <c r="N56" s="11">
+        <v>2</v>
+      </c>
+      <c r="O56" s="11">
+        <v>212</v>
+      </c>
+      <c r="P56" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>219</v>
       </c>
       <c r="S56" s="5">
         <f t="shared" si="2"/>
@@ -6460,26 +6467,26 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K57">
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>28.384</v>
-      </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <v>204</v>
-      </c>
-      <c r="P57">
-        <v>2</v>
-      </c>
-      <c r="Q57">
-        <v>206</v>
+      <c r="K57" s="11">
+        <v>2</v>
+      </c>
+      <c r="L57" s="11">
+        <v>5</v>
+      </c>
+      <c r="M57" s="11">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="N57" s="11">
+        <v>2</v>
+      </c>
+      <c r="O57" s="11">
+        <v>203</v>
+      </c>
+      <c r="P57" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>211</v>
       </c>
       <c r="S57" s="5">
         <f t="shared" si="2"/>
@@ -6562,26 +6569,26 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <v>3</v>
-      </c>
-      <c r="M58">
-        <v>23.427</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
-      <c r="O58">
-        <v>195</v>
-      </c>
-      <c r="P58">
-        <v>2</v>
-      </c>
-      <c r="Q58">
-        <v>196</v>
+      <c r="K58" s="11">
+        <v>2</v>
+      </c>
+      <c r="L58" s="11">
+        <v>5</v>
+      </c>
+      <c r="M58" s="11">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="N58" s="11">
+        <v>2</v>
+      </c>
+      <c r="O58" s="11">
+        <v>203</v>
+      </c>
+      <c r="P58" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>212</v>
       </c>
       <c r="S58" s="5">
         <f t="shared" si="2"/>
@@ -6664,26 +6671,26 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K59">
-        <v>3</v>
-      </c>
-      <c r="L59">
-        <v>6</v>
-      </c>
-      <c r="M59">
-        <v>41.905999999999999</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-      <c r="O59">
-        <v>209</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>219</v>
+      <c r="K59" s="11">
+        <v>1</v>
+      </c>
+      <c r="L59" s="11">
+        <v>4</v>
+      </c>
+      <c r="M59" s="11">
+        <v>7.7149999999999999</v>
+      </c>
+      <c r="N59" s="11">
+        <v>2</v>
+      </c>
+      <c r="O59" s="11">
+        <v>198</v>
+      </c>
+      <c r="P59" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>198</v>
       </c>
       <c r="S59" s="5">
         <f t="shared" si="2"/>
@@ -6766,26 +6773,26 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>21.481999999999999</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>208</v>
-      </c>
-      <c r="P60">
-        <v>2</v>
-      </c>
-      <c r="Q60">
-        <v>208</v>
+      <c r="K60" s="11">
+        <v>3</v>
+      </c>
+      <c r="L60" s="11">
+        <v>5</v>
+      </c>
+      <c r="M60" s="11">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="N60" s="11">
+        <v>3</v>
+      </c>
+      <c r="O60" s="11">
+        <v>205</v>
+      </c>
+      <c r="P60" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>219</v>
       </c>
       <c r="S60" s="5">
         <f t="shared" si="2"/>
@@ -6868,26 +6875,26 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61">
-        <v>23.661000000000001</v>
-      </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61">
-        <v>216</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>230</v>
+      <c r="K61" s="11">
+        <v>4</v>
+      </c>
+      <c r="L61" s="11">
+        <v>5</v>
+      </c>
+      <c r="M61" s="11">
+        <v>8.2110000000000003</v>
+      </c>
+      <c r="N61" s="11">
+        <v>4</v>
+      </c>
+      <c r="O61" s="11">
+        <v>199</v>
+      </c>
+      <c r="P61" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>218</v>
       </c>
       <c r="S61" s="5">
         <f t="shared" si="2"/>
@@ -6970,26 +6977,26 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="M62">
-        <v>21.364000000000001</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-      <c r="O62">
+      <c r="K62" s="11">
+        <v>1</v>
+      </c>
+      <c r="L62" s="11">
+        <v>3</v>
+      </c>
+      <c r="M62" s="11">
+        <v>6.5119999999999996</v>
+      </c>
+      <c r="N62" s="11">
+        <v>2</v>
+      </c>
+      <c r="O62" s="11">
         <v>209</v>
       </c>
-      <c r="P62">
-        <v>2</v>
-      </c>
-      <c r="Q62">
-        <v>210</v>
+      <c r="P62" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>209</v>
       </c>
       <c r="S62" s="5">
         <f t="shared" si="2"/>
@@ -7072,26 +7079,26 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63">
-        <v>2</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>22.835999999999999</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>213</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>220</v>
+      <c r="K63" s="11">
+        <v>2</v>
+      </c>
+      <c r="L63" s="11">
+        <v>4</v>
+      </c>
+      <c r="M63" s="11">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="N63" s="11">
+        <v>3</v>
+      </c>
+      <c r="O63" s="11">
+        <v>208</v>
+      </c>
+      <c r="P63" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>209</v>
       </c>
       <c r="S63" s="5">
         <f t="shared" si="2"/>
@@ -7174,26 +7181,26 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>3</v>
-      </c>
-      <c r="M64">
-        <v>22.213000000000001</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-      <c r="O64">
-        <v>223</v>
-      </c>
-      <c r="P64">
-        <v>2</v>
-      </c>
-      <c r="Q64">
-        <v>223</v>
+      <c r="K64" s="11">
+        <v>2</v>
+      </c>
+      <c r="L64" s="11">
+        <v>4</v>
+      </c>
+      <c r="M64" s="11">
+        <v>8.0180000000000007</v>
+      </c>
+      <c r="N64" s="11">
+        <v>3</v>
+      </c>
+      <c r="O64" s="11">
+        <v>203</v>
+      </c>
+      <c r="P64" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>204</v>
       </c>
       <c r="S64" s="5">
         <f t="shared" si="2"/>
@@ -7276,26 +7283,26 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
-      <c r="M65">
-        <v>22.878</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-      <c r="O65">
-        <v>203</v>
-      </c>
-      <c r="P65">
-        <v>2</v>
-      </c>
-      <c r="Q65">
-        <v>203</v>
+      <c r="K65" s="11">
+        <v>2</v>
+      </c>
+      <c r="L65" s="11">
+        <v>5</v>
+      </c>
+      <c r="M65" s="11">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="N65" s="11">
+        <v>2</v>
+      </c>
+      <c r="O65" s="11">
+        <v>210</v>
+      </c>
+      <c r="P65" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>217</v>
       </c>
       <c r="S65" s="5">
         <f t="shared" si="2"/>
@@ -7378,26 +7385,26 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="L66">
-        <v>4</v>
-      </c>
-      <c r="M66">
-        <v>31.385000000000002</v>
-      </c>
-      <c r="N66">
-        <v>3</v>
-      </c>
-      <c r="O66">
-        <v>198</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>214</v>
+      <c r="K66" s="11">
+        <v>2</v>
+      </c>
+      <c r="L66" s="11">
+        <v>4</v>
+      </c>
+      <c r="M66" s="11">
+        <v>7.56</v>
+      </c>
+      <c r="N66" s="11">
+        <v>2</v>
+      </c>
+      <c r="O66" s="11">
+        <v>212</v>
+      </c>
+      <c r="P66" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>221</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" si="2"/>
@@ -7480,26 +7487,26 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-      <c r="L67">
-        <v>4</v>
-      </c>
-      <c r="M67">
-        <v>29.312000000000001</v>
-      </c>
-      <c r="N67">
-        <v>4</v>
-      </c>
-      <c r="O67">
-        <v>218</v>
-      </c>
-      <c r="P67">
-        <v>2</v>
-      </c>
-      <c r="Q67">
-        <v>220</v>
+      <c r="K67" s="11">
+        <v>2</v>
+      </c>
+      <c r="L67" s="11">
+        <v>5</v>
+      </c>
+      <c r="M67" s="11">
+        <v>9.423</v>
+      </c>
+      <c r="N67" s="11">
+        <v>2</v>
+      </c>
+      <c r="O67" s="11">
+        <v>213</v>
+      </c>
+      <c r="P67" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>221</v>
       </c>
       <c r="S67" s="5">
         <f t="shared" si="2"/>
@@ -7582,26 +7589,26 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>4</v>
-      </c>
-      <c r="M68">
-        <v>30.459</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-      <c r="O68">
-        <v>215</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>221</v>
+      <c r="K68" s="11">
+        <v>4</v>
+      </c>
+      <c r="L68" s="11">
+        <v>6</v>
+      </c>
+      <c r="M68" s="11">
+        <v>11.489000000000001</v>
+      </c>
+      <c r="N68" s="11">
+        <v>5</v>
+      </c>
+      <c r="O68" s="11">
+        <v>216</v>
+      </c>
+      <c r="P68" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>219</v>
       </c>
       <c r="S68" s="5">
         <f t="shared" si="2"/>
@@ -7684,26 +7691,26 @@
         <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>4</v>
-      </c>
-      <c r="M69">
-        <v>27.812000000000001</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-      <c r="O69">
-        <v>201</v>
-      </c>
-      <c r="P69">
-        <v>2</v>
-      </c>
-      <c r="Q69">
-        <v>201</v>
+      <c r="K69" s="11">
+        <v>3</v>
+      </c>
+      <c r="L69" s="11">
+        <v>5</v>
+      </c>
+      <c r="M69" s="11">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="N69" s="11">
+        <v>3</v>
+      </c>
+      <c r="O69" s="11">
+        <v>192</v>
+      </c>
+      <c r="P69" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>211</v>
       </c>
       <c r="S69" s="5">
         <f t="shared" ref="S69:S102" si="6">S68+1</f>
@@ -7786,26 +7793,26 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="K70">
-        <v>3</v>
-      </c>
-      <c r="L70">
+      <c r="K70" s="11">
+        <v>2</v>
+      </c>
+      <c r="L70" s="11">
         <v>5</v>
       </c>
-      <c r="M70">
-        <v>36.268999999999998</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>201</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>212</v>
+      <c r="M70" s="11">
+        <v>10.221</v>
+      </c>
+      <c r="N70" s="11">
+        <v>3</v>
+      </c>
+      <c r="O70" s="11">
+        <v>206</v>
+      </c>
+      <c r="P70" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>207</v>
       </c>
       <c r="S70" s="5">
         <f t="shared" si="6"/>
@@ -7888,26 +7895,26 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>3</v>
-      </c>
-      <c r="M71">
-        <v>23.41</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-      <c r="O71">
-        <v>211</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>217</v>
+      <c r="K71" s="11">
+        <v>2</v>
+      </c>
+      <c r="L71" s="11">
+        <v>4</v>
+      </c>
+      <c r="M71" s="11">
+        <v>6.3949999999999996</v>
+      </c>
+      <c r="N71" s="11">
+        <v>2</v>
+      </c>
+      <c r="O71" s="11">
+        <v>199</v>
+      </c>
+      <c r="P71" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>209</v>
       </c>
       <c r="S71" s="5">
         <f t="shared" si="6"/>
@@ -7990,26 +7997,26 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>30.46</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72">
+      <c r="K72" s="11">
+        <v>1</v>
+      </c>
+      <c r="L72" s="11">
+        <v>4</v>
+      </c>
+      <c r="M72" s="11">
+        <v>7.9169999999999998</v>
+      </c>
+      <c r="N72" s="11">
+        <v>2</v>
+      </c>
+      <c r="O72" s="11">
         <v>203</v>
       </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>221</v>
+      <c r="P72" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>203</v>
       </c>
       <c r="S72" s="5">
         <f t="shared" si="6"/>
@@ -8092,26 +8099,26 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="K73">
-        <v>2</v>
-      </c>
-      <c r="L73">
-        <v>4</v>
-      </c>
-      <c r="M73">
-        <v>30.082000000000001</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
-      </c>
-      <c r="O73">
-        <v>213</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>224</v>
+      <c r="K73" s="11">
+        <v>2</v>
+      </c>
+      <c r="L73" s="11">
+        <v>3</v>
+      </c>
+      <c r="M73" s="11">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="N73" s="11">
+        <v>3</v>
+      </c>
+      <c r="O73" s="11">
+        <v>200</v>
+      </c>
+      <c r="P73" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>201</v>
       </c>
       <c r="S73" s="5">
         <f t="shared" si="6"/>
@@ -8194,26 +8201,26 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K74">
-        <v>2</v>
-      </c>
-      <c r="L74">
-        <v>3</v>
-      </c>
-      <c r="M74">
-        <v>22.484000000000002</v>
-      </c>
-      <c r="N74">
-        <v>2</v>
-      </c>
-      <c r="O74">
-        <v>211</v>
-      </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>225</v>
+      <c r="K74" s="11">
+        <v>2</v>
+      </c>
+      <c r="L74" s="11">
+        <v>4</v>
+      </c>
+      <c r="M74" s="11">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="N74" s="11">
+        <v>3</v>
+      </c>
+      <c r="O74" s="11">
+        <v>202</v>
+      </c>
+      <c r="P74" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>203</v>
       </c>
       <c r="S74" s="5">
         <f t="shared" si="6"/>
@@ -8296,26 +8303,26 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="K75">
-        <v>2</v>
-      </c>
-      <c r="L75">
-        <v>3</v>
-      </c>
-      <c r="M75">
-        <v>21.63</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>209</v>
-      </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
-        <v>210</v>
+      <c r="K75" s="11">
+        <v>1</v>
+      </c>
+      <c r="L75" s="11">
+        <v>3</v>
+      </c>
+      <c r="M75" s="11">
+        <v>6.4710000000000001</v>
+      </c>
+      <c r="N75" s="11">
+        <v>2</v>
+      </c>
+      <c r="O75" s="11">
+        <v>200</v>
+      </c>
+      <c r="P75" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>200</v>
       </c>
       <c r="S75" s="5">
         <f t="shared" si="6"/>
@@ -8398,26 +8405,26 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="K76">
-        <v>2</v>
-      </c>
-      <c r="L76">
-        <v>4</v>
-      </c>
-      <c r="M76">
-        <v>31.504000000000001</v>
-      </c>
-      <c r="N76">
-        <v>2</v>
-      </c>
-      <c r="O76">
-        <v>215</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>224</v>
+      <c r="K76" s="11">
+        <v>3</v>
+      </c>
+      <c r="L76" s="11">
+        <v>5</v>
+      </c>
+      <c r="M76" s="11">
+        <v>7.7850000000000001</v>
+      </c>
+      <c r="N76" s="11">
+        <v>3</v>
+      </c>
+      <c r="O76" s="11">
+        <v>198</v>
+      </c>
+      <c r="P76" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>203</v>
       </c>
       <c r="S76" s="5">
         <f t="shared" si="6"/>
@@ -8500,26 +8507,26 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77">
-        <v>21.864000000000001</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77">
-        <v>205</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>214</v>
+      <c r="K77" s="11">
+        <v>2</v>
+      </c>
+      <c r="L77" s="11">
+        <v>4</v>
+      </c>
+      <c r="M77" s="11">
+        <v>6.5990000000000002</v>
+      </c>
+      <c r="N77" s="11">
+        <v>2</v>
+      </c>
+      <c r="O77" s="11">
+        <v>210</v>
+      </c>
+      <c r="P77" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>223</v>
       </c>
       <c r="S77" s="5">
         <f t="shared" si="6"/>
@@ -8602,26 +8609,26 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>4</v>
-      </c>
-      <c r="M78">
-        <v>30.143000000000001</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="O78">
-        <v>213</v>
-      </c>
-      <c r="P78">
-        <v>2</v>
-      </c>
-      <c r="Q78">
-        <v>213</v>
+      <c r="K78" s="11">
+        <v>3</v>
+      </c>
+      <c r="L78" s="11">
+        <v>4</v>
+      </c>
+      <c r="M78" s="11">
+        <v>6.88</v>
+      </c>
+      <c r="N78" s="11">
+        <v>3</v>
+      </c>
+      <c r="O78" s="11">
+        <v>207</v>
+      </c>
+      <c r="P78" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>217</v>
       </c>
       <c r="S78" s="5">
         <f t="shared" si="6"/>
@@ -8704,26 +8711,26 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="K79">
-        <v>2</v>
-      </c>
-      <c r="L79">
-        <v>4</v>
-      </c>
-      <c r="M79">
-        <v>30.213000000000001</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-      <c r="O79">
-        <v>211</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>213</v>
+      <c r="K79" s="11">
+        <v>2</v>
+      </c>
+      <c r="L79" s="11">
+        <v>4</v>
+      </c>
+      <c r="M79" s="11">
+        <v>6.3010000000000002</v>
+      </c>
+      <c r="N79" s="11">
+        <v>2</v>
+      </c>
+      <c r="O79" s="11">
+        <v>212</v>
+      </c>
+      <c r="P79" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>226</v>
       </c>
       <c r="S79" s="5">
         <f t="shared" si="6"/>
@@ -8806,26 +8813,26 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
-      <c r="L80">
-        <v>4</v>
-      </c>
-      <c r="M80">
-        <v>27.899000000000001</v>
-      </c>
-      <c r="N80">
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <v>197</v>
-      </c>
-      <c r="P80">
-        <v>2</v>
-      </c>
-      <c r="Q80">
-        <v>198</v>
+      <c r="K80" s="11">
+        <v>2</v>
+      </c>
+      <c r="L80" s="11">
+        <v>4</v>
+      </c>
+      <c r="M80" s="11">
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="N80" s="11">
+        <v>3</v>
+      </c>
+      <c r="O80" s="11">
+        <v>204</v>
+      </c>
+      <c r="P80" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>205</v>
       </c>
       <c r="S80" s="5">
         <f t="shared" si="6"/>
@@ -8908,26 +8915,26 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="K81">
-        <v>2</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
-        <v>23.088999999999999</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-      <c r="O81">
-        <v>210</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>221</v>
+      <c r="K81" s="11">
+        <v>2</v>
+      </c>
+      <c r="L81" s="11">
+        <v>5</v>
+      </c>
+      <c r="M81" s="11">
+        <v>10.167</v>
+      </c>
+      <c r="N81" s="11">
+        <v>3</v>
+      </c>
+      <c r="O81" s="11">
+        <v>212</v>
+      </c>
+      <c r="P81" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>213</v>
       </c>
       <c r="S81" s="5">
         <f t="shared" si="6"/>
@@ -9010,26 +9017,26 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
+      <c r="K82" s="11">
+        <v>3</v>
+      </c>
+      <c r="L82" s="11">
         <v>5</v>
       </c>
-      <c r="M82">
-        <v>36.51</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82">
-        <v>202</v>
-      </c>
-      <c r="P82">
-        <v>2</v>
-      </c>
-      <c r="Q82">
-        <v>202</v>
+      <c r="M82" s="11">
+        <v>8.8729999999999993</v>
+      </c>
+      <c r="N82" s="11">
+        <v>3</v>
+      </c>
+      <c r="O82" s="11">
+        <v>211</v>
+      </c>
+      <c r="P82" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>224</v>
       </c>
       <c r="S82" s="5">
         <f t="shared" si="6"/>
@@ -9112,26 +9119,26 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83">
-        <v>22.437999999999999</v>
-      </c>
-      <c r="N83">
-        <v>3</v>
-      </c>
-      <c r="O83">
-        <v>204</v>
-      </c>
-      <c r="P83">
-        <v>2</v>
-      </c>
-      <c r="Q83">
-        <v>205</v>
+      <c r="K83" s="11">
+        <v>1</v>
+      </c>
+      <c r="L83" s="11">
+        <v>2</v>
+      </c>
+      <c r="M83" s="11">
+        <v>3.95</v>
+      </c>
+      <c r="N83" s="11">
+        <v>2</v>
+      </c>
+      <c r="O83" s="11">
+        <v>209</v>
+      </c>
+      <c r="P83" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="11">
+        <v>209</v>
       </c>
       <c r="S83" s="5">
         <f t="shared" si="6"/>
@@ -9214,26 +9221,26 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>4</v>
-      </c>
-      <c r="M84">
-        <v>28.117999999999999</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>205</v>
-      </c>
-      <c r="P84">
-        <v>2</v>
-      </c>
-      <c r="Q84">
-        <v>205</v>
+      <c r="K84" s="11">
+        <v>1</v>
+      </c>
+      <c r="L84" s="11">
+        <v>4</v>
+      </c>
+      <c r="M84" s="11">
+        <v>8.1440000000000001</v>
+      </c>
+      <c r="N84" s="11">
+        <v>2</v>
+      </c>
+      <c r="O84" s="11">
+        <v>212</v>
+      </c>
+      <c r="P84" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>212</v>
       </c>
       <c r="S84" s="5">
         <f t="shared" si="6"/>
@@ -9316,26 +9323,26 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>22.539000000000001</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>210</v>
-      </c>
-      <c r="P85">
-        <v>2</v>
-      </c>
-      <c r="Q85">
-        <v>210</v>
+      <c r="K85" s="11">
+        <v>2</v>
+      </c>
+      <c r="L85" s="11">
+        <v>4</v>
+      </c>
+      <c r="M85" s="11">
+        <v>7.8680000000000003</v>
+      </c>
+      <c r="N85" s="11">
+        <v>3</v>
+      </c>
+      <c r="O85" s="11">
+        <v>211</v>
+      </c>
+      <c r="P85" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="11">
+        <v>212</v>
       </c>
       <c r="S85" s="5">
         <f t="shared" si="6"/>
@@ -9418,25 +9425,25 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>22.241</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>210</v>
-      </c>
-      <c r="P86">
-        <v>2</v>
-      </c>
-      <c r="Q86">
+      <c r="K86" s="11">
+        <v>1</v>
+      </c>
+      <c r="L86" s="11">
+        <v>4</v>
+      </c>
+      <c r="M86" s="11">
+        <v>8.3040000000000003</v>
+      </c>
+      <c r="N86" s="11">
+        <v>2</v>
+      </c>
+      <c r="O86" s="11">
+        <v>211</v>
+      </c>
+      <c r="P86" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="11">
         <v>211</v>
       </c>
       <c r="S86" s="5">
@@ -9520,26 +9527,26 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>33.402000000000001</v>
-      </c>
-      <c r="N87">
-        <v>2</v>
-      </c>
-      <c r="O87">
-        <v>213</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>222</v>
+      <c r="K87" s="11">
+        <v>2</v>
+      </c>
+      <c r="L87" s="11">
+        <v>5</v>
+      </c>
+      <c r="M87" s="11">
+        <v>9.9190000000000005</v>
+      </c>
+      <c r="N87" s="11">
+        <v>3</v>
+      </c>
+      <c r="O87" s="11">
+        <v>209</v>
+      </c>
+      <c r="P87" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q87" s="11">
+        <v>210</v>
       </c>
       <c r="S87" s="5">
         <f t="shared" si="6"/>
@@ -9622,26 +9629,26 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>27.61</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>204</v>
-      </c>
-      <c r="P88">
-        <v>2</v>
-      </c>
-      <c r="Q88">
-        <v>205</v>
+      <c r="K88" s="11">
+        <v>3</v>
+      </c>
+      <c r="L88" s="11">
+        <v>4</v>
+      </c>
+      <c r="M88" s="11">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="N88" s="11">
+        <v>3</v>
+      </c>
+      <c r="O88" s="11">
+        <v>198</v>
+      </c>
+      <c r="P88" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>212</v>
       </c>
       <c r="S88" s="5">
         <f t="shared" si="6"/>
@@ -9724,26 +9731,26 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="K89">
-        <v>2</v>
-      </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>22.535</v>
-      </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
-      <c r="O89">
-        <v>196</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>200</v>
+      <c r="K89" s="11">
+        <v>1</v>
+      </c>
+      <c r="L89" s="11">
+        <v>4</v>
+      </c>
+      <c r="M89" s="11">
+        <v>8.0109999999999992</v>
+      </c>
+      <c r="N89" s="11">
+        <v>2</v>
+      </c>
+      <c r="O89" s="11">
+        <v>216</v>
+      </c>
+      <c r="P89" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>216</v>
       </c>
       <c r="S89" s="5">
         <f t="shared" si="6"/>
@@ -9826,26 +9833,26 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="K90">
-        <v>2</v>
-      </c>
-      <c r="L90">
-        <v>4</v>
-      </c>
-      <c r="M90">
-        <v>28.785</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-      <c r="O90">
-        <v>194</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>206</v>
+      <c r="K90" s="11">
+        <v>2</v>
+      </c>
+      <c r="L90" s="11">
+        <v>3</v>
+      </c>
+      <c r="M90" s="11">
+        <v>7.1360000000000001</v>
+      </c>
+      <c r="N90" s="11">
+        <v>3</v>
+      </c>
+      <c r="O90" s="11">
+        <v>202</v>
+      </c>
+      <c r="P90" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="11">
+        <v>203</v>
       </c>
       <c r="S90" s="5">
         <f t="shared" si="6"/>
@@ -9928,26 +9935,26 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>4</v>
-      </c>
-      <c r="M91">
-        <v>27.501999999999999</v>
-      </c>
-      <c r="N91">
-        <v>2</v>
-      </c>
-      <c r="O91">
-        <v>207</v>
-      </c>
-      <c r="P91">
-        <v>2</v>
-      </c>
-      <c r="Q91">
-        <v>207</v>
+      <c r="K91" s="11">
+        <v>2</v>
+      </c>
+      <c r="L91" s="11">
+        <v>4</v>
+      </c>
+      <c r="M91" s="11">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="N91" s="11">
+        <v>3</v>
+      </c>
+      <c r="O91" s="11">
+        <v>219</v>
+      </c>
+      <c r="P91" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>223</v>
       </c>
       <c r="S91" s="5">
         <f t="shared" si="6"/>
@@ -10030,26 +10037,26 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>4</v>
-      </c>
-      <c r="M92">
-        <v>29.004000000000001</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-      <c r="O92">
-        <v>204</v>
-      </c>
-      <c r="P92">
-        <v>2</v>
-      </c>
-      <c r="Q92">
-        <v>204</v>
+      <c r="K92" s="11">
+        <v>2</v>
+      </c>
+      <c r="L92" s="11">
+        <v>4</v>
+      </c>
+      <c r="M92" s="11">
+        <v>8.1219999999999999</v>
+      </c>
+      <c r="N92" s="11">
+        <v>3</v>
+      </c>
+      <c r="O92" s="11">
+        <v>216</v>
+      </c>
+      <c r="P92" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>218</v>
       </c>
       <c r="S92" s="5">
         <f t="shared" si="6"/>
@@ -10132,26 +10139,26 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="K93">
-        <v>4</v>
-      </c>
-      <c r="L93">
-        <v>4</v>
-      </c>
-      <c r="M93">
-        <v>30.169</v>
-      </c>
-      <c r="N93">
-        <v>4</v>
-      </c>
-      <c r="O93">
-        <v>209</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>224</v>
+      <c r="K93" s="11">
+        <v>1</v>
+      </c>
+      <c r="L93" s="11">
+        <v>3</v>
+      </c>
+      <c r="M93" s="11">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="N93" s="11">
+        <v>2</v>
+      </c>
+      <c r="O93" s="11">
+        <v>211</v>
+      </c>
+      <c r="P93" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="11">
+        <v>211</v>
       </c>
       <c r="S93" s="5">
         <f t="shared" si="6"/>
@@ -10234,26 +10241,26 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="K94">
-        <v>2</v>
-      </c>
-      <c r="L94">
-        <v>3</v>
-      </c>
-      <c r="M94">
-        <v>22.885000000000002</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <v>205</v>
-      </c>
-      <c r="P94">
-        <v>2</v>
-      </c>
-      <c r="Q94">
-        <v>206</v>
+      <c r="K94" s="11">
+        <v>2</v>
+      </c>
+      <c r="L94" s="11">
+        <v>5</v>
+      </c>
+      <c r="M94" s="11">
+        <v>9.3849999999999998</v>
+      </c>
+      <c r="N94" s="11">
+        <v>3</v>
+      </c>
+      <c r="O94" s="11">
+        <v>203</v>
+      </c>
+      <c r="P94" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="11">
+        <v>204</v>
       </c>
       <c r="S94" s="5">
         <f t="shared" si="6"/>
@@ -10336,26 +10343,26 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="K95">
-        <v>2</v>
-      </c>
-      <c r="L95">
-        <v>3</v>
-      </c>
-      <c r="M95">
-        <v>23.195</v>
-      </c>
-      <c r="N95">
-        <v>2</v>
-      </c>
-      <c r="O95">
-        <v>212</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>220</v>
+      <c r="K95" s="11">
+        <v>3</v>
+      </c>
+      <c r="L95" s="11">
+        <v>5</v>
+      </c>
+      <c r="M95" s="11">
+        <v>8.0340000000000007</v>
+      </c>
+      <c r="N95" s="11">
+        <v>3</v>
+      </c>
+      <c r="O95" s="11">
+        <v>204</v>
+      </c>
+      <c r="P95" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="11">
+        <v>221</v>
       </c>
       <c r="S95" s="5">
         <f t="shared" si="6"/>
@@ -10438,26 +10445,26 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>3</v>
-      </c>
-      <c r="M96">
-        <v>21.477</v>
-      </c>
-      <c r="N96">
-        <v>2</v>
-      </c>
-      <c r="O96">
-        <v>204</v>
-      </c>
-      <c r="P96">
-        <v>2</v>
-      </c>
-      <c r="Q96">
-        <v>204</v>
+      <c r="K96" s="11">
+        <v>2</v>
+      </c>
+      <c r="L96" s="11">
+        <v>3</v>
+      </c>
+      <c r="M96" s="11">
+        <v>5.9640000000000004</v>
+      </c>
+      <c r="N96" s="11">
+        <v>3</v>
+      </c>
+      <c r="O96" s="11">
+        <v>201</v>
+      </c>
+      <c r="P96" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="11">
+        <v>202</v>
       </c>
       <c r="S96" s="5">
         <f t="shared" si="6"/>
@@ -10540,26 +10547,26 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K97">
-        <v>2</v>
-      </c>
-      <c r="L97">
-        <v>3</v>
-      </c>
-      <c r="M97">
-        <v>21.734000000000002</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-      <c r="O97">
-        <v>205</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>212</v>
+      <c r="K97" s="11">
+        <v>2</v>
+      </c>
+      <c r="L97" s="11">
+        <v>4</v>
+      </c>
+      <c r="M97" s="11">
+        <v>7.9630000000000001</v>
+      </c>
+      <c r="N97" s="11">
+        <v>3</v>
+      </c>
+      <c r="O97" s="11">
+        <v>208</v>
+      </c>
+      <c r="P97" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="11">
+        <v>209</v>
       </c>
       <c r="S97" s="5">
         <f t="shared" si="6"/>
@@ -10642,26 +10649,26 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>29.916</v>
-      </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-      <c r="O98">
-        <v>212</v>
-      </c>
-      <c r="P98">
-        <v>2</v>
-      </c>
-      <c r="Q98">
-        <v>212</v>
+      <c r="K98" s="11">
+        <v>2</v>
+      </c>
+      <c r="L98" s="11">
+        <v>4</v>
+      </c>
+      <c r="M98" s="11">
+        <v>6.9989999999999997</v>
+      </c>
+      <c r="N98" s="11">
+        <v>2</v>
+      </c>
+      <c r="O98" s="11">
+        <v>215</v>
+      </c>
+      <c r="P98" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="11">
+        <v>220</v>
       </c>
       <c r="S98" s="5">
         <f t="shared" si="6"/>
@@ -10744,26 +10751,26 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K99">
-        <v>2</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>22.76</v>
-      </c>
-      <c r="N99">
-        <v>2</v>
-      </c>
-      <c r="O99">
-        <v>220</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99">
-        <v>229</v>
+      <c r="K99" s="11">
+        <v>3</v>
+      </c>
+      <c r="L99" s="11">
+        <v>5</v>
+      </c>
+      <c r="M99" s="11">
+        <v>10.087</v>
+      </c>
+      <c r="N99" s="11">
+        <v>3</v>
+      </c>
+      <c r="O99" s="11">
+        <v>214</v>
+      </c>
+      <c r="P99" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="11">
+        <v>225</v>
       </c>
       <c r="S99" s="5">
         <f t="shared" si="6"/>
@@ -10846,26 +10853,26 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="K100">
-        <v>3</v>
-      </c>
-      <c r="L100">
-        <v>4</v>
-      </c>
-      <c r="M100">
-        <v>31.379000000000001</v>
-      </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100">
-        <v>211</v>
-      </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
-      <c r="Q100">
-        <v>231</v>
+      <c r="K100" s="11">
+        <v>2</v>
+      </c>
+      <c r="L100" s="11">
+        <v>3</v>
+      </c>
+      <c r="M100" s="11">
+        <v>6.3710000000000004</v>
+      </c>
+      <c r="N100" s="11">
+        <v>3</v>
+      </c>
+      <c r="O100" s="11">
+        <v>212</v>
+      </c>
+      <c r="P100" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="11">
+        <v>213</v>
       </c>
       <c r="S100" s="5">
         <f t="shared" si="6"/>
@@ -10948,26 +10955,26 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
-        <v>29.509</v>
-      </c>
-      <c r="N101">
-        <v>2</v>
-      </c>
-      <c r="O101">
-        <v>197</v>
-      </c>
-      <c r="P101">
-        <v>2</v>
-      </c>
-      <c r="Q101">
-        <v>197</v>
+      <c r="K101" s="11">
+        <v>2</v>
+      </c>
+      <c r="L101" s="11">
+        <v>5</v>
+      </c>
+      <c r="M101" s="11">
+        <v>8.2460000000000004</v>
+      </c>
+      <c r="N101" s="11">
+        <v>2</v>
+      </c>
+      <c r="O101" s="11">
+        <v>212</v>
+      </c>
+      <c r="P101" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="11">
+        <v>221</v>
       </c>
       <c r="S101" s="5">
         <f t="shared" si="6"/>
@@ -11050,26 +11057,26 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K102">
-        <v>2</v>
-      </c>
-      <c r="L102">
-        <v>3</v>
-      </c>
-      <c r="M102">
-        <v>21.782</v>
-      </c>
-      <c r="N102">
-        <v>2</v>
-      </c>
-      <c r="O102">
+      <c r="K102" s="11">
+        <v>2</v>
+      </c>
+      <c r="L102" s="11">
+        <v>4</v>
+      </c>
+      <c r="M102" s="11">
+        <v>6.7450000000000001</v>
+      </c>
+      <c r="N102" s="11">
+        <v>2</v>
+      </c>
+      <c r="O102" s="11">
         <v>206</v>
       </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102">
-        <v>208</v>
+      <c r="P102" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="11">
+        <v>215</v>
       </c>
       <c r="S102" s="5">
         <f t="shared" si="6"/>
@@ -11146,8 +11153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8614094-8C5C-4035-905F-DBDB678D42BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/equal-costs_rand-topology_multiple-dest_50-100-200-400-nodes.xlsx
+++ b/equal-costs_rand-topology_multiple-dest_50-100-200-400-nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC8BFA-5452-4CA0-956B-256448660A53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8876C6-417D-4B52-AE97-BC86C58C1589}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,7 +223,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ102"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,56 +784,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="W1" s="8" t="s">
+      <c r="T1" s="10"/>
+      <c r="W1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AC1" s="9" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AC1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AG1" s="8" t="s">
+      <c r="AD1" s="10"/>
+      <c r="AG1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8" t="s">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="8"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -961,25 +961,25 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11">
-        <v>4</v>
-      </c>
-      <c r="M3" s="11">
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8">
         <v>6.476</v>
       </c>
-      <c r="N3" s="11">
-        <v>2</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
         <v>198</v>
       </c>
-      <c r="P3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
         <v>208</v>
       </c>
       <c r="S3" s="5">
@@ -1061,25 +1061,25 @@
         <f>J3+1</f>
         <v>2</v>
       </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
         <v>5</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <v>10.475</v>
       </c>
-      <c r="N4" s="11">
-        <v>2</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="8">
+        <v>2</v>
+      </c>
+      <c r="O4" s="8">
         <v>211</v>
       </c>
-      <c r="P4" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8">
         <v>211</v>
       </c>
       <c r="S4" s="5">
@@ -1163,25 +1163,25 @@
         <f t="shared" ref="J5:J68" si="1">J4+1</f>
         <v>3</v>
       </c>
-      <c r="K5" s="11">
-        <v>2</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
         <v>5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="8">
         <v>8.516</v>
       </c>
-      <c r="N5" s="11">
-        <v>2</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="8">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8">
         <v>209</v>
       </c>
-      <c r="P5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
         <v>221</v>
       </c>
       <c r="S5" s="5">
@@ -1265,25 +1265,25 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6" s="11">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11">
-        <v>4</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
         <v>7.3220000000000001</v>
       </c>
-      <c r="N6" s="11">
-        <v>2</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="N6" s="8">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8">
         <v>215</v>
       </c>
-      <c r="P6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11">
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
         <v>227</v>
       </c>
       <c r="S6" s="5">
@@ -1367,25 +1367,25 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8">
         <v>6.4480000000000004</v>
       </c>
-      <c r="N7" s="11">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="8">
+        <v>2</v>
+      </c>
+      <c r="O7" s="8">
         <v>204</v>
       </c>
-      <c r="P7" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="P7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="8">
         <v>204</v>
       </c>
       <c r="S7" s="5">
@@ -1469,25 +1469,25 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8" s="11">
-        <v>2</v>
-      </c>
-      <c r="L8" s="11">
-        <v>4</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="8">
         <v>8.2379999999999995</v>
       </c>
-      <c r="N8" s="11">
-        <v>3</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
         <v>201</v>
       </c>
-      <c r="P8" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="P8" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="8">
         <v>202</v>
       </c>
       <c r="S8" s="5">
@@ -1571,25 +1571,25 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>4</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8">
         <v>8.89</v>
       </c>
-      <c r="N9" s="11">
-        <v>2</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="N9" s="8">
+        <v>2</v>
+      </c>
+      <c r="O9" s="8">
         <v>215</v>
       </c>
-      <c r="P9" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P9" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="8">
         <v>215</v>
       </c>
       <c r="S9" s="5">
@@ -1673,25 +1673,25 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10" s="11">
-        <v>2</v>
-      </c>
-      <c r="L10" s="11">
-        <v>4</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>4</v>
+      </c>
+      <c r="M10" s="8">
         <v>6.76</v>
       </c>
-      <c r="N10" s="11">
-        <v>2</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
+      <c r="O10" s="8">
         <v>209</v>
       </c>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8">
         <v>217</v>
       </c>
       <c r="S10" s="5">
@@ -1775,25 +1775,25 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>3</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3</v>
+      </c>
+      <c r="M11" s="8">
         <v>6.976</v>
       </c>
-      <c r="N11" s="11">
-        <v>2</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="N11" s="8">
+        <v>2</v>
+      </c>
+      <c r="O11" s="8">
         <v>217</v>
       </c>
-      <c r="P11" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="P11" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="8">
         <v>217</v>
       </c>
       <c r="S11" s="5">
@@ -1877,25 +1877,25 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12" s="11">
-        <v>3</v>
-      </c>
-      <c r="L12" s="11">
-        <v>4</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="K12" s="8">
+        <v>3</v>
+      </c>
+      <c r="L12" s="8">
+        <v>4</v>
+      </c>
+      <c r="M12" s="8">
         <v>6.3879999999999999</v>
       </c>
-      <c r="N12" s="11">
-        <v>3</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="N12" s="8">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
         <v>202</v>
       </c>
-      <c r="P12" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
         <v>214</v>
       </c>
       <c r="S12" s="5">
@@ -1979,25 +1979,25 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K13" s="11">
-        <v>2</v>
-      </c>
-      <c r="L13" s="11">
-        <v>4</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4</v>
+      </c>
+      <c r="M13" s="8">
         <v>8.0259999999999998</v>
       </c>
-      <c r="N13" s="11">
-        <v>3</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13" s="8">
+        <v>3</v>
+      </c>
+      <c r="O13" s="8">
         <v>210</v>
       </c>
-      <c r="P13" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="11">
+      <c r="P13" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="8">
         <v>213</v>
       </c>
       <c r="S13" s="5">
@@ -2081,25 +2081,25 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K14" s="11">
-        <v>2</v>
-      </c>
-      <c r="L14" s="11">
-        <v>4</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8">
         <v>8.0579999999999998</v>
       </c>
-      <c r="N14" s="11">
-        <v>3</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="N14" s="8">
+        <v>3</v>
+      </c>
+      <c r="O14" s="8">
         <v>211</v>
       </c>
-      <c r="P14" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="P14" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="8">
         <v>212</v>
       </c>
       <c r="S14" s="5">
@@ -2183,25 +2183,25 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K15" s="11">
-        <v>2</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8">
         <v>5</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="8">
         <v>8.5909999999999993</v>
       </c>
-      <c r="N15" s="11">
-        <v>2</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="N15" s="8">
+        <v>2</v>
+      </c>
+      <c r="O15" s="8">
         <v>202</v>
       </c>
-      <c r="P15" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8">
         <v>211</v>
       </c>
       <c r="S15" s="5">
@@ -2285,25 +2285,25 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11">
-        <v>4</v>
-      </c>
-      <c r="M16" s="11">
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4</v>
+      </c>
+      <c r="M16" s="8">
         <v>8.7439999999999998</v>
       </c>
-      <c r="N16" s="11">
-        <v>2</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="N16" s="8">
+        <v>2</v>
+      </c>
+      <c r="O16" s="8">
         <v>212</v>
       </c>
-      <c r="P16" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="P16" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="8">
         <v>212</v>
       </c>
       <c r="S16" s="5">
@@ -2387,25 +2387,25 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17" s="11">
-        <v>2</v>
-      </c>
-      <c r="L17" s="11">
-        <v>4</v>
-      </c>
-      <c r="M17" s="11">
+      <c r="K17" s="8">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>4</v>
+      </c>
+      <c r="M17" s="8">
         <v>8.4280000000000008</v>
       </c>
-      <c r="N17" s="11">
-        <v>3</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="N17" s="8">
+        <v>3</v>
+      </c>
+      <c r="O17" s="8">
         <v>211</v>
       </c>
-      <c r="P17" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="P17" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="8">
         <v>212</v>
       </c>
       <c r="S17" s="5">
@@ -2489,25 +2489,25 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K18" s="11">
-        <v>2</v>
-      </c>
-      <c r="L18" s="11">
-        <v>3</v>
-      </c>
-      <c r="M18" s="11">
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>3</v>
+      </c>
+      <c r="M18" s="8">
         <v>6.782</v>
       </c>
-      <c r="N18" s="11">
-        <v>3</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="N18" s="8">
+        <v>3</v>
+      </c>
+      <c r="O18" s="8">
         <v>208</v>
       </c>
-      <c r="P18" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="11">
+      <c r="P18" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="8">
         <v>209</v>
       </c>
       <c r="S18" s="5">
@@ -2591,25 +2591,25 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K19" s="11">
-        <v>1</v>
-      </c>
-      <c r="L19" s="11">
-        <v>3</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>3</v>
+      </c>
+      <c r="M19" s="8">
         <v>6.9130000000000003</v>
       </c>
-      <c r="N19" s="11">
-        <v>2</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8">
         <v>211</v>
       </c>
-      <c r="P19" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="11">
+      <c r="P19" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="8">
         <v>211</v>
       </c>
       <c r="S19" s="5">
@@ -2693,25 +2693,25 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K20" s="11">
-        <v>3</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="K20" s="8">
+        <v>3</v>
+      </c>
+      <c r="L20" s="8">
         <v>5</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="8">
         <v>9.0960000000000001</v>
       </c>
-      <c r="N20" s="11">
-        <v>3</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="N20" s="8">
+        <v>3</v>
+      </c>
+      <c r="O20" s="8">
         <v>209</v>
       </c>
-      <c r="P20" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="11">
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
         <v>222</v>
       </c>
       <c r="S20" s="5">
@@ -2795,25 +2795,25 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K21" s="11">
-        <v>2</v>
-      </c>
-      <c r="L21" s="11">
-        <v>4</v>
-      </c>
-      <c r="M21" s="11">
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>4</v>
+      </c>
+      <c r="M21" s="8">
         <v>7.14</v>
       </c>
-      <c r="N21" s="11">
-        <v>2</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="N21" s="8">
+        <v>2</v>
+      </c>
+      <c r="O21" s="8">
         <v>206</v>
       </c>
-      <c r="P21" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="11">
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
         <v>214</v>
       </c>
       <c r="S21" s="5">
@@ -2897,25 +2897,25 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="11">
-        <v>2</v>
-      </c>
-      <c r="L22" s="11">
-        <v>4</v>
-      </c>
-      <c r="M22" s="11">
+      <c r="K22" s="8">
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>4</v>
+      </c>
+      <c r="M22" s="8">
         <v>6.827</v>
       </c>
-      <c r="N22" s="11">
-        <v>2</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="N22" s="8">
+        <v>2</v>
+      </c>
+      <c r="O22" s="8">
         <v>202</v>
       </c>
-      <c r="P22" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="11">
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
         <v>214</v>
       </c>
       <c r="S22" s="5">
@@ -2999,25 +2999,25 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K23" s="11">
-        <v>2</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="K23" s="8">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8">
         <v>5</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="8">
         <v>8.4060000000000006</v>
       </c>
-      <c r="N23" s="11">
-        <v>2</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="N23" s="8">
+        <v>2</v>
+      </c>
+      <c r="O23" s="8">
         <v>198</v>
       </c>
-      <c r="P23" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="11">
+      <c r="P23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8">
         <v>212</v>
       </c>
       <c r="S23" s="5">
@@ -3101,25 +3101,25 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24" s="11">
-        <v>2</v>
-      </c>
-      <c r="L24" s="11">
-        <v>4</v>
-      </c>
-      <c r="M24" s="11">
+      <c r="K24" s="8">
+        <v>2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>4</v>
+      </c>
+      <c r="M24" s="8">
         <v>8.0980000000000008</v>
       </c>
-      <c r="N24" s="11">
-        <v>3</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="N24" s="8">
+        <v>3</v>
+      </c>
+      <c r="O24" s="8">
         <v>201</v>
       </c>
-      <c r="P24" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="11">
+      <c r="P24" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="8">
         <v>202</v>
       </c>
       <c r="S24" s="5">
@@ -3203,25 +3203,25 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K25" s="11">
-        <v>1</v>
-      </c>
-      <c r="L25" s="11">
-        <v>4</v>
-      </c>
-      <c r="M25" s="11">
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N25" s="11">
-        <v>2</v>
-      </c>
-      <c r="O25" s="11">
+      <c r="N25" s="8">
+        <v>2</v>
+      </c>
+      <c r="O25" s="8">
         <v>212</v>
       </c>
-      <c r="P25" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="11">
+      <c r="P25" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="8">
         <v>212</v>
       </c>
       <c r="S25" s="5">
@@ -3305,25 +3305,25 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K26" s="11">
-        <v>2</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11">
+      <c r="K26" s="8">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8">
+        <v>4</v>
+      </c>
+      <c r="M26" s="8">
         <v>9.0969999999999995</v>
       </c>
-      <c r="N26" s="11">
-        <v>3</v>
-      </c>
-      <c r="O26" s="11">
+      <c r="N26" s="8">
+        <v>3</v>
+      </c>
+      <c r="O26" s="8">
         <v>208</v>
       </c>
-      <c r="P26" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="11">
+      <c r="P26" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="8">
         <v>209</v>
       </c>
       <c r="S26" s="5">
@@ -3407,25 +3407,25 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K27" s="11">
-        <v>3</v>
-      </c>
-      <c r="L27" s="11">
-        <v>4</v>
-      </c>
-      <c r="M27" s="11">
+      <c r="K27" s="8">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8">
+        <v>4</v>
+      </c>
+      <c r="M27" s="8">
         <v>6.9820000000000002</v>
       </c>
-      <c r="N27" s="11">
-        <v>3</v>
-      </c>
-      <c r="O27" s="11">
+      <c r="N27" s="8">
+        <v>3</v>
+      </c>
+      <c r="O27" s="8">
         <v>209</v>
       </c>
-      <c r="P27" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="11">
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8">
         <v>218</v>
       </c>
       <c r="S27" s="5">
@@ -3509,25 +3509,25 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K28" s="11">
-        <v>3</v>
-      </c>
-      <c r="L28" s="11">
-        <v>4</v>
-      </c>
-      <c r="M28" s="11">
+      <c r="K28" s="8">
+        <v>3</v>
+      </c>
+      <c r="L28" s="8">
+        <v>4</v>
+      </c>
+      <c r="M28" s="8">
         <v>6.883</v>
       </c>
-      <c r="N28" s="11">
-        <v>3</v>
-      </c>
-      <c r="O28" s="11">
+      <c r="N28" s="8">
+        <v>3</v>
+      </c>
+      <c r="O28" s="8">
         <v>215</v>
       </c>
-      <c r="P28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="11">
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
         <v>224</v>
       </c>
       <c r="S28" s="5">
@@ -3611,25 +3611,25 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11">
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
         <v>5</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="8">
         <v>10.359</v>
       </c>
-      <c r="N29" s="11">
-        <v>2</v>
-      </c>
-      <c r="O29" s="11">
+      <c r="N29" s="8">
+        <v>2</v>
+      </c>
+      <c r="O29" s="8">
         <v>209</v>
       </c>
-      <c r="P29" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="11">
+      <c r="P29" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="8">
         <v>209</v>
       </c>
       <c r="S29" s="5">
@@ -3713,25 +3713,25 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K30" s="11">
-        <v>4</v>
-      </c>
-      <c r="L30" s="11">
+      <c r="K30" s="8">
+        <v>4</v>
+      </c>
+      <c r="L30" s="8">
         <v>5</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="8">
         <v>8.9760000000000009</v>
       </c>
-      <c r="N30" s="11">
-        <v>4</v>
-      </c>
-      <c r="O30" s="11">
+      <c r="N30" s="8">
+        <v>4</v>
+      </c>
+      <c r="O30" s="8">
         <v>204</v>
       </c>
-      <c r="P30" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="11">
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
         <v>216</v>
       </c>
       <c r="S30" s="5">
@@ -3815,25 +3815,25 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K31" s="11">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11">
-        <v>3</v>
-      </c>
-      <c r="M31" s="11">
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>3</v>
+      </c>
+      <c r="M31" s="8">
         <v>6.931</v>
       </c>
-      <c r="N31" s="11">
-        <v>2</v>
-      </c>
-      <c r="O31" s="11">
+      <c r="N31" s="8">
+        <v>2</v>
+      </c>
+      <c r="O31" s="8">
         <v>196</v>
       </c>
-      <c r="P31" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="11">
+      <c r="P31" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="8">
         <v>196</v>
       </c>
       <c r="S31" s="5">
@@ -3917,25 +3917,25 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" s="11">
-        <v>3</v>
-      </c>
-      <c r="M32" s="11">
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>3</v>
+      </c>
+      <c r="M32" s="8">
         <v>6.7270000000000003</v>
       </c>
-      <c r="N32" s="11">
-        <v>2</v>
-      </c>
-      <c r="O32" s="11">
+      <c r="N32" s="8">
+        <v>2</v>
+      </c>
+      <c r="O32" s="8">
         <v>209</v>
       </c>
-      <c r="P32" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="11">
+      <c r="P32" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="8">
         <v>209</v>
       </c>
       <c r="S32" s="5">
@@ -4019,25 +4019,25 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K33" s="11">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11">
-        <v>4</v>
-      </c>
-      <c r="M33" s="11">
+      <c r="K33" s="8">
+        <v>2</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4</v>
+      </c>
+      <c r="M33" s="8">
         <v>8.2319999999999993</v>
       </c>
-      <c r="N33" s="11">
-        <v>2</v>
-      </c>
-      <c r="O33" s="11">
+      <c r="N33" s="8">
+        <v>2</v>
+      </c>
+      <c r="O33" s="8">
         <v>197</v>
       </c>
-      <c r="P33" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="11">
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8">
         <v>209</v>
       </c>
       <c r="S33" s="5">
@@ -4121,25 +4121,25 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K34" s="11">
-        <v>2</v>
-      </c>
-      <c r="L34" s="11">
+      <c r="K34" s="8">
+        <v>2</v>
+      </c>
+      <c r="L34" s="8">
         <v>6</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="8">
         <v>13.587999999999999</v>
       </c>
-      <c r="N34" s="11">
-        <v>2</v>
-      </c>
-      <c r="O34" s="11">
+      <c r="N34" s="8">
+        <v>2</v>
+      </c>
+      <c r="O34" s="8">
         <v>208</v>
       </c>
-      <c r="P34" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="11">
+      <c r="P34" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="8">
         <v>214</v>
       </c>
       <c r="S34" s="5">
@@ -4223,25 +4223,25 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K35" s="11">
-        <v>2</v>
-      </c>
-      <c r="L35" s="11">
-        <v>4</v>
-      </c>
-      <c r="M35" s="11">
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>4</v>
+      </c>
+      <c r="M35" s="8">
         <v>8.9209999999999994</v>
       </c>
-      <c r="N35" s="11">
-        <v>2</v>
-      </c>
-      <c r="O35" s="11">
+      <c r="N35" s="8">
+        <v>2</v>
+      </c>
+      <c r="O35" s="8">
         <v>209</v>
       </c>
-      <c r="P35" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="11">
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
         <v>218</v>
       </c>
       <c r="S35" s="5">
@@ -4325,25 +4325,25 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K36" s="11">
-        <v>1</v>
-      </c>
-      <c r="L36" s="11">
-        <v>3</v>
-      </c>
-      <c r="M36" s="11">
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
+        <v>3</v>
+      </c>
+      <c r="M36" s="8">
         <v>7.6509999999999998</v>
       </c>
-      <c r="N36" s="11">
-        <v>2</v>
-      </c>
-      <c r="O36" s="11">
+      <c r="N36" s="8">
+        <v>2</v>
+      </c>
+      <c r="O36" s="8">
         <v>209</v>
       </c>
-      <c r="P36" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="11">
+      <c r="P36" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="8">
         <v>209</v>
       </c>
       <c r="S36" s="5">
@@ -4427,25 +4427,25 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K37" s="11">
-        <v>2</v>
-      </c>
-      <c r="L37" s="11">
-        <v>4</v>
-      </c>
-      <c r="M37" s="11">
+      <c r="K37" s="8">
+        <v>2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>4</v>
+      </c>
+      <c r="M37" s="8">
         <v>8.7089999999999996</v>
       </c>
-      <c r="N37" s="11">
-        <v>3</v>
-      </c>
-      <c r="O37" s="11">
+      <c r="N37" s="8">
+        <v>3</v>
+      </c>
+      <c r="O37" s="8">
         <v>210</v>
       </c>
-      <c r="P37" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="11">
+      <c r="P37" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="8">
         <v>212</v>
       </c>
       <c r="S37" s="5">
@@ -4529,25 +4529,25 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K38" s="11">
-        <v>3</v>
-      </c>
-      <c r="L38" s="11">
-        <v>4</v>
-      </c>
-      <c r="M38" s="11">
+      <c r="K38" s="8">
+        <v>3</v>
+      </c>
+      <c r="L38" s="8">
+        <v>4</v>
+      </c>
+      <c r="M38" s="8">
         <v>6.8979999999999997</v>
       </c>
-      <c r="N38" s="11">
-        <v>3</v>
-      </c>
-      <c r="O38" s="11">
+      <c r="N38" s="8">
+        <v>3</v>
+      </c>
+      <c r="O38" s="8">
         <v>196</v>
       </c>
-      <c r="P38" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="11">
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
         <v>213</v>
       </c>
       <c r="S38" s="5">
@@ -4631,25 +4631,25 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>4</v>
-      </c>
-      <c r="M39" s="11">
+      <c r="K39" s="8">
+        <v>2</v>
+      </c>
+      <c r="L39" s="8">
+        <v>4</v>
+      </c>
+      <c r="M39" s="8">
         <v>6.5140000000000002</v>
       </c>
-      <c r="N39" s="11">
-        <v>2</v>
-      </c>
-      <c r="O39" s="11">
+      <c r="N39" s="8">
+        <v>2</v>
+      </c>
+      <c r="O39" s="8">
         <v>203</v>
       </c>
-      <c r="P39" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="11">
+      <c r="P39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="8">
         <v>209</v>
       </c>
       <c r="S39" s="5">
@@ -4733,25 +4733,25 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K40" s="11">
-        <v>2</v>
-      </c>
-      <c r="L40" s="11">
-        <v>3</v>
-      </c>
-      <c r="M40" s="11">
+      <c r="K40" s="8">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8">
+        <v>3</v>
+      </c>
+      <c r="M40" s="8">
         <v>6.45</v>
       </c>
-      <c r="N40" s="11">
-        <v>3</v>
-      </c>
-      <c r="O40" s="11">
+      <c r="N40" s="8">
+        <v>3</v>
+      </c>
+      <c r="O40" s="8">
         <v>213</v>
       </c>
-      <c r="P40" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="11">
+      <c r="P40" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="8">
         <v>214</v>
       </c>
       <c r="S40" s="5">
@@ -4835,25 +4835,25 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K41" s="11">
-        <v>3</v>
-      </c>
-      <c r="L41" s="11">
+      <c r="K41" s="8">
+        <v>3</v>
+      </c>
+      <c r="L41" s="8">
         <v>5</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="8">
         <v>9.0389999999999997</v>
       </c>
-      <c r="N41" s="11">
-        <v>3</v>
-      </c>
-      <c r="O41" s="11">
+      <c r="N41" s="8">
+        <v>3</v>
+      </c>
+      <c r="O41" s="8">
         <v>209</v>
       </c>
-      <c r="P41" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="11">
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8">
         <v>222</v>
       </c>
       <c r="S41" s="5">
@@ -4937,25 +4937,25 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K42" s="11">
-        <v>2</v>
-      </c>
-      <c r="L42" s="11">
-        <v>4</v>
-      </c>
-      <c r="M42" s="11">
+      <c r="K42" s="8">
+        <v>2</v>
+      </c>
+      <c r="L42" s="8">
+        <v>4</v>
+      </c>
+      <c r="M42" s="8">
         <v>9.1709999999999994</v>
       </c>
-      <c r="N42" s="11">
-        <v>3</v>
-      </c>
-      <c r="O42" s="11">
+      <c r="N42" s="8">
+        <v>3</v>
+      </c>
+      <c r="O42" s="8">
         <v>213</v>
       </c>
-      <c r="P42" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="11">
+      <c r="P42" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="8">
         <v>215</v>
       </c>
       <c r="S42" s="5">
@@ -5039,25 +5039,25 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K43" s="11">
-        <v>2</v>
-      </c>
-      <c r="L43" s="11">
-        <v>4</v>
-      </c>
-      <c r="M43" s="11">
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="8">
+        <v>4</v>
+      </c>
+      <c r="M43" s="8">
         <v>7.3040000000000003</v>
       </c>
-      <c r="N43" s="11">
-        <v>2</v>
-      </c>
-      <c r="O43" s="11">
+      <c r="N43" s="8">
+        <v>2</v>
+      </c>
+      <c r="O43" s="8">
         <v>212</v>
       </c>
-      <c r="P43" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="11">
+      <c r="P43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="8">
         <v>222</v>
       </c>
       <c r="S43" s="5">
@@ -5141,25 +5141,25 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K44" s="11">
-        <v>2</v>
-      </c>
-      <c r="L44" s="11">
-        <v>4</v>
-      </c>
-      <c r="M44" s="11">
+      <c r="K44" s="8">
+        <v>2</v>
+      </c>
+      <c r="L44" s="8">
+        <v>4</v>
+      </c>
+      <c r="M44" s="8">
         <v>8.2560000000000002</v>
       </c>
-      <c r="N44" s="11">
-        <v>3</v>
-      </c>
-      <c r="O44" s="11">
+      <c r="N44" s="8">
+        <v>3</v>
+      </c>
+      <c r="O44" s="8">
         <v>213</v>
       </c>
-      <c r="P44" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="11">
+      <c r="P44" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="8">
         <v>214</v>
       </c>
       <c r="S44" s="5">
@@ -5243,25 +5243,25 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K45" s="11">
-        <v>3</v>
-      </c>
-      <c r="L45" s="11">
-        <v>4</v>
-      </c>
-      <c r="M45" s="11">
+      <c r="K45" s="8">
+        <v>3</v>
+      </c>
+      <c r="L45" s="8">
+        <v>4</v>
+      </c>
+      <c r="M45" s="8">
         <v>7.2</v>
       </c>
-      <c r="N45" s="11">
-        <v>3</v>
-      </c>
-      <c r="O45" s="11">
+      <c r="N45" s="8">
+        <v>3</v>
+      </c>
+      <c r="O45" s="8">
         <v>207</v>
       </c>
-      <c r="P45" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="11">
+      <c r="P45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8">
         <v>222</v>
       </c>
       <c r="S45" s="5">
@@ -5345,25 +5345,25 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46" s="11">
-        <v>2</v>
-      </c>
-      <c r="L46" s="11">
+      <c r="K46" s="8">
+        <v>2</v>
+      </c>
+      <c r="L46" s="8">
         <v>6</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="8">
         <v>11.826000000000001</v>
       </c>
-      <c r="N46" s="11">
-        <v>3</v>
-      </c>
-      <c r="O46" s="11">
+      <c r="N46" s="8">
+        <v>3</v>
+      </c>
+      <c r="O46" s="8">
         <v>219</v>
       </c>
-      <c r="P46" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="11">
+      <c r="P46" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="8">
         <v>220</v>
       </c>
       <c r="S46" s="5">
@@ -5447,25 +5447,25 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
-      <c r="L47" s="11">
-        <v>4</v>
-      </c>
-      <c r="M47" s="11">
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>4</v>
+      </c>
+      <c r="M47" s="8">
         <v>8.4179999999999993</v>
       </c>
-      <c r="N47" s="11">
-        <v>2</v>
-      </c>
-      <c r="O47" s="11">
+      <c r="N47" s="8">
+        <v>2</v>
+      </c>
+      <c r="O47" s="8">
         <v>214</v>
       </c>
-      <c r="P47" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="11">
+      <c r="P47" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="8">
         <v>214</v>
       </c>
       <c r="S47" s="5">
@@ -5549,25 +5549,25 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K48" s="11">
-        <v>2</v>
-      </c>
-      <c r="L48" s="11">
+      <c r="K48" s="8">
+        <v>2</v>
+      </c>
+      <c r="L48" s="8">
         <v>5</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="8">
         <v>9.9619999999999997</v>
       </c>
-      <c r="N48" s="11">
-        <v>3</v>
-      </c>
-      <c r="O48" s="11">
+      <c r="N48" s="8">
+        <v>3</v>
+      </c>
+      <c r="O48" s="8">
         <v>203</v>
       </c>
-      <c r="P48" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="11">
+      <c r="P48" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="8">
         <v>205</v>
       </c>
       <c r="S48" s="5">
@@ -5651,25 +5651,25 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K49" s="11">
-        <v>2</v>
-      </c>
-      <c r="L49" s="11">
+      <c r="K49" s="8">
+        <v>2</v>
+      </c>
+      <c r="L49" s="8">
         <v>6</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="8">
         <v>10.863</v>
       </c>
-      <c r="N49" s="11">
-        <v>2</v>
-      </c>
-      <c r="O49" s="11">
+      <c r="N49" s="8">
+        <v>2</v>
+      </c>
+      <c r="O49" s="8">
         <v>207</v>
       </c>
-      <c r="P49" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="11">
+      <c r="P49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="8">
         <v>220</v>
       </c>
       <c r="S49" s="5">
@@ -5753,25 +5753,25 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K50" s="11">
-        <v>1</v>
-      </c>
-      <c r="L50" s="11">
-        <v>4</v>
-      </c>
-      <c r="M50" s="11">
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8">
+        <v>4</v>
+      </c>
+      <c r="M50" s="8">
         <v>8.3070000000000004</v>
       </c>
-      <c r="N50" s="11">
-        <v>2</v>
-      </c>
-      <c r="O50" s="11">
+      <c r="N50" s="8">
+        <v>2</v>
+      </c>
+      <c r="O50" s="8">
         <v>212</v>
       </c>
-      <c r="P50" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="11">
+      <c r="P50" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="8">
         <v>212</v>
       </c>
       <c r="S50" s="5">
@@ -5855,25 +5855,25 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K51" s="11">
-        <v>2</v>
-      </c>
-      <c r="L51" s="11">
-        <v>3</v>
-      </c>
-      <c r="M51" s="11">
+      <c r="K51" s="8">
+        <v>2</v>
+      </c>
+      <c r="L51" s="8">
+        <v>3</v>
+      </c>
+      <c r="M51" s="8">
         <v>6.3250000000000002</v>
       </c>
-      <c r="N51" s="11">
-        <v>3</v>
-      </c>
-      <c r="O51" s="11">
+      <c r="N51" s="8">
+        <v>3</v>
+      </c>
+      <c r="O51" s="8">
         <v>214</v>
       </c>
-      <c r="P51" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="11">
+      <c r="P51" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="8">
         <v>215</v>
       </c>
       <c r="S51" s="5">
@@ -5957,25 +5957,25 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K52" s="11">
-        <v>1</v>
-      </c>
-      <c r="L52" s="11">
-        <v>3</v>
-      </c>
-      <c r="M52" s="11">
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8">
+        <v>3</v>
+      </c>
+      <c r="M52" s="8">
         <v>6.6459999999999999</v>
       </c>
-      <c r="N52" s="11">
-        <v>2</v>
-      </c>
-      <c r="O52" s="11">
+      <c r="N52" s="8">
+        <v>2</v>
+      </c>
+      <c r="O52" s="8">
         <v>206</v>
       </c>
-      <c r="P52" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="11">
+      <c r="P52" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="8">
         <v>206</v>
       </c>
       <c r="S52" s="5">
@@ -6059,25 +6059,25 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K53" s="11">
-        <v>3</v>
-      </c>
-      <c r="L53" s="11">
+      <c r="K53" s="8">
+        <v>3</v>
+      </c>
+      <c r="L53" s="8">
         <v>5</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="8">
         <v>9.2530000000000001</v>
       </c>
-      <c r="N53" s="11">
-        <v>3</v>
-      </c>
-      <c r="O53" s="11">
+      <c r="N53" s="8">
+        <v>3</v>
+      </c>
+      <c r="O53" s="8">
         <v>220</v>
       </c>
-      <c r="P53" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="11">
+      <c r="P53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="8">
         <v>235</v>
       </c>
       <c r="S53" s="5">
@@ -6161,25 +6161,25 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K54" s="11">
-        <v>2</v>
-      </c>
-      <c r="L54" s="11">
+      <c r="K54" s="8">
+        <v>2</v>
+      </c>
+      <c r="L54" s="8">
         <v>5</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="8">
         <v>9.1760000000000002</v>
       </c>
-      <c r="N54" s="11">
-        <v>2</v>
-      </c>
-      <c r="O54" s="11">
+      <c r="N54" s="8">
+        <v>2</v>
+      </c>
+      <c r="O54" s="8">
         <v>210</v>
       </c>
-      <c r="P54" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="11">
+      <c r="P54" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="8">
         <v>219</v>
       </c>
       <c r="S54" s="5">
@@ -6263,25 +6263,25 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K55" s="11">
-        <v>2</v>
-      </c>
-      <c r="L55" s="11">
-        <v>4</v>
-      </c>
-      <c r="M55" s="11">
+      <c r="K55" s="8">
+        <v>2</v>
+      </c>
+      <c r="L55" s="8">
+        <v>4</v>
+      </c>
+      <c r="M55" s="8">
         <v>7.7460000000000004</v>
       </c>
-      <c r="N55" s="11">
-        <v>3</v>
-      </c>
-      <c r="O55" s="11">
+      <c r="N55" s="8">
+        <v>3</v>
+      </c>
+      <c r="O55" s="8">
         <v>203</v>
       </c>
-      <c r="P55" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="11">
+      <c r="P55" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="8">
         <v>204</v>
       </c>
       <c r="S55" s="5">
@@ -6365,25 +6365,25 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56" s="11">
-        <v>2</v>
-      </c>
-      <c r="L56" s="11">
-        <v>4</v>
-      </c>
-      <c r="M56" s="11">
+      <c r="K56" s="8">
+        <v>2</v>
+      </c>
+      <c r="L56" s="8">
+        <v>4</v>
+      </c>
+      <c r="M56" s="8">
         <v>7.452</v>
       </c>
-      <c r="N56" s="11">
-        <v>2</v>
-      </c>
-      <c r="O56" s="11">
+      <c r="N56" s="8">
+        <v>2</v>
+      </c>
+      <c r="O56" s="8">
         <v>212</v>
       </c>
-      <c r="P56" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="11">
+      <c r="P56" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="8">
         <v>219</v>
       </c>
       <c r="S56" s="5">
@@ -6467,25 +6467,25 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K57" s="11">
-        <v>2</v>
-      </c>
-      <c r="L57" s="11">
+      <c r="K57" s="8">
+        <v>2</v>
+      </c>
+      <c r="L57" s="8">
         <v>5</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="8">
         <v>9.2799999999999994</v>
       </c>
-      <c r="N57" s="11">
-        <v>2</v>
-      </c>
-      <c r="O57" s="11">
+      <c r="N57" s="8">
+        <v>2</v>
+      </c>
+      <c r="O57" s="8">
         <v>203</v>
       </c>
-      <c r="P57" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="11">
+      <c r="P57" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="8">
         <v>211</v>
       </c>
       <c r="S57" s="5">
@@ -6569,25 +6569,25 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K58" s="11">
-        <v>2</v>
-      </c>
-      <c r="L58" s="11">
+      <c r="K58" s="8">
+        <v>2</v>
+      </c>
+      <c r="L58" s="8">
         <v>5</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="8">
         <v>8.0050000000000008</v>
       </c>
-      <c r="N58" s="11">
-        <v>2</v>
-      </c>
-      <c r="O58" s="11">
+      <c r="N58" s="8">
+        <v>2</v>
+      </c>
+      <c r="O58" s="8">
         <v>203</v>
       </c>
-      <c r="P58" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="11">
+      <c r="P58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="8">
         <v>212</v>
       </c>
       <c r="S58" s="5">
@@ -6671,25 +6671,25 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K59" s="11">
-        <v>1</v>
-      </c>
-      <c r="L59" s="11">
-        <v>4</v>
-      </c>
-      <c r="M59" s="11">
+      <c r="K59" s="8">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8">
+        <v>4</v>
+      </c>
+      <c r="M59" s="8">
         <v>7.7149999999999999</v>
       </c>
-      <c r="N59" s="11">
-        <v>2</v>
-      </c>
-      <c r="O59" s="11">
+      <c r="N59" s="8">
+        <v>2</v>
+      </c>
+      <c r="O59" s="8">
         <v>198</v>
       </c>
-      <c r="P59" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="11">
+      <c r="P59" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="8">
         <v>198</v>
       </c>
       <c r="S59" s="5">
@@ -6773,25 +6773,25 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="K60" s="11">
-        <v>3</v>
-      </c>
-      <c r="L60" s="11">
+      <c r="K60" s="8">
+        <v>3</v>
+      </c>
+      <c r="L60" s="8">
         <v>5</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="8">
         <v>8.7750000000000004</v>
       </c>
-      <c r="N60" s="11">
-        <v>3</v>
-      </c>
-      <c r="O60" s="11">
+      <c r="N60" s="8">
+        <v>3</v>
+      </c>
+      <c r="O60" s="8">
         <v>205</v>
       </c>
-      <c r="P60" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="11">
+      <c r="P60" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="8">
         <v>219</v>
       </c>
       <c r="S60" s="5">
@@ -6875,25 +6875,25 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K61" s="11">
-        <v>4</v>
-      </c>
-      <c r="L61" s="11">
+      <c r="K61" s="8">
+        <v>4</v>
+      </c>
+      <c r="L61" s="8">
         <v>5</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="8">
         <v>8.2110000000000003</v>
       </c>
-      <c r="N61" s="11">
-        <v>4</v>
-      </c>
-      <c r="O61" s="11">
+      <c r="N61" s="8">
+        <v>4</v>
+      </c>
+      <c r="O61" s="8">
         <v>199</v>
       </c>
-      <c r="P61" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="11">
+      <c r="P61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="8">
         <v>218</v>
       </c>
       <c r="S61" s="5">
@@ -6977,25 +6977,25 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K62" s="11">
-        <v>1</v>
-      </c>
-      <c r="L62" s="11">
-        <v>3</v>
-      </c>
-      <c r="M62" s="11">
+      <c r="K62" s="8">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8">
+        <v>3</v>
+      </c>
+      <c r="M62" s="8">
         <v>6.5119999999999996</v>
       </c>
-      <c r="N62" s="11">
-        <v>2</v>
-      </c>
-      <c r="O62" s="11">
+      <c r="N62" s="8">
+        <v>2</v>
+      </c>
+      <c r="O62" s="8">
         <v>209</v>
       </c>
-      <c r="P62" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="11">
+      <c r="P62" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="8">
         <v>209</v>
       </c>
       <c r="S62" s="5">
@@ -7079,25 +7079,25 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63" s="11">
-        <v>2</v>
-      </c>
-      <c r="L63" s="11">
-        <v>4</v>
-      </c>
-      <c r="M63" s="11">
+      <c r="K63" s="8">
+        <v>2</v>
+      </c>
+      <c r="L63" s="8">
+        <v>4</v>
+      </c>
+      <c r="M63" s="8">
         <v>7.8289999999999997</v>
       </c>
-      <c r="N63" s="11">
-        <v>3</v>
-      </c>
-      <c r="O63" s="11">
+      <c r="N63" s="8">
+        <v>3</v>
+      </c>
+      <c r="O63" s="8">
         <v>208</v>
       </c>
-      <c r="P63" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="11">
+      <c r="P63" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="8">
         <v>209</v>
       </c>
       <c r="S63" s="5">
@@ -7181,25 +7181,25 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K64" s="11">
-        <v>2</v>
-      </c>
-      <c r="L64" s="11">
-        <v>4</v>
-      </c>
-      <c r="M64" s="11">
+      <c r="K64" s="8">
+        <v>2</v>
+      </c>
+      <c r="L64" s="8">
+        <v>4</v>
+      </c>
+      <c r="M64" s="8">
         <v>8.0180000000000007</v>
       </c>
-      <c r="N64" s="11">
-        <v>3</v>
-      </c>
-      <c r="O64" s="11">
+      <c r="N64" s="8">
+        <v>3</v>
+      </c>
+      <c r="O64" s="8">
         <v>203</v>
       </c>
-      <c r="P64" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="11">
+      <c r="P64" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="8">
         <v>204</v>
       </c>
       <c r="S64" s="5">
@@ -7283,25 +7283,25 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="K65" s="11">
-        <v>2</v>
-      </c>
-      <c r="L65" s="11">
+      <c r="K65" s="8">
+        <v>2</v>
+      </c>
+      <c r="L65" s="8">
         <v>5</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M65" s="8">
         <v>8.8699999999999992</v>
       </c>
-      <c r="N65" s="11">
-        <v>2</v>
-      </c>
-      <c r="O65" s="11">
+      <c r="N65" s="8">
+        <v>2</v>
+      </c>
+      <c r="O65" s="8">
         <v>210</v>
       </c>
-      <c r="P65" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="11">
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8">
         <v>217</v>
       </c>
       <c r="S65" s="5">
@@ -7385,25 +7385,25 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K66" s="11">
-        <v>2</v>
-      </c>
-      <c r="L66" s="11">
-        <v>4</v>
-      </c>
-      <c r="M66" s="11">
+      <c r="K66" s="8">
+        <v>2</v>
+      </c>
+      <c r="L66" s="8">
+        <v>4</v>
+      </c>
+      <c r="M66" s="8">
         <v>7.56</v>
       </c>
-      <c r="N66" s="11">
-        <v>2</v>
-      </c>
-      <c r="O66" s="11">
+      <c r="N66" s="8">
+        <v>2</v>
+      </c>
+      <c r="O66" s="8">
         <v>212</v>
       </c>
-      <c r="P66" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="11">
+      <c r="P66" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="8">
         <v>221</v>
       </c>
       <c r="S66" s="5">
@@ -7487,25 +7487,25 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K67" s="11">
-        <v>2</v>
-      </c>
-      <c r="L67" s="11">
+      <c r="K67" s="8">
+        <v>2</v>
+      </c>
+      <c r="L67" s="8">
         <v>5</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="8">
         <v>9.423</v>
       </c>
-      <c r="N67" s="11">
-        <v>2</v>
-      </c>
-      <c r="O67" s="11">
+      <c r="N67" s="8">
+        <v>2</v>
+      </c>
+      <c r="O67" s="8">
         <v>213</v>
       </c>
-      <c r="P67" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="11">
+      <c r="P67" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="8">
         <v>221</v>
       </c>
       <c r="S67" s="5">
@@ -7589,25 +7589,25 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K68" s="11">
-        <v>4</v>
-      </c>
-      <c r="L68" s="11">
+      <c r="K68" s="8">
+        <v>4</v>
+      </c>
+      <c r="L68" s="8">
         <v>6</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="8">
         <v>11.489000000000001</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N68" s="8">
         <v>5</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O68" s="8">
         <v>216</v>
       </c>
-      <c r="P68" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="11">
+      <c r="P68" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="8">
         <v>219</v>
       </c>
       <c r="S68" s="5">
@@ -7691,25 +7691,25 @@
         <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
-      <c r="K69" s="11">
-        <v>3</v>
-      </c>
-      <c r="L69" s="11">
+      <c r="K69" s="8">
+        <v>3</v>
+      </c>
+      <c r="L69" s="8">
         <v>5</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M69" s="8">
         <v>8.7040000000000006</v>
       </c>
-      <c r="N69" s="11">
-        <v>3</v>
-      </c>
-      <c r="O69" s="11">
+      <c r="N69" s="8">
+        <v>3</v>
+      </c>
+      <c r="O69" s="8">
         <v>192</v>
       </c>
-      <c r="P69" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="11">
+      <c r="P69" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="8">
         <v>211</v>
       </c>
       <c r="S69" s="5">
@@ -7793,25 +7793,25 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="K70" s="11">
-        <v>2</v>
-      </c>
-      <c r="L70" s="11">
+      <c r="K70" s="8">
+        <v>2</v>
+      </c>
+      <c r="L70" s="8">
         <v>5</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M70" s="8">
         <v>10.221</v>
       </c>
-      <c r="N70" s="11">
-        <v>3</v>
-      </c>
-      <c r="O70" s="11">
+      <c r="N70" s="8">
+        <v>3</v>
+      </c>
+      <c r="O70" s="8">
         <v>206</v>
       </c>
-      <c r="P70" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="11">
+      <c r="P70" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="8">
         <v>207</v>
       </c>
       <c r="S70" s="5">
@@ -7895,25 +7895,25 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="K71" s="11">
-        <v>2</v>
-      </c>
-      <c r="L71" s="11">
-        <v>4</v>
-      </c>
-      <c r="M71" s="11">
+      <c r="K71" s="8">
+        <v>2</v>
+      </c>
+      <c r="L71" s="8">
+        <v>4</v>
+      </c>
+      <c r="M71" s="8">
         <v>6.3949999999999996</v>
       </c>
-      <c r="N71" s="11">
-        <v>2</v>
-      </c>
-      <c r="O71" s="11">
+      <c r="N71" s="8">
+        <v>2</v>
+      </c>
+      <c r="O71" s="8">
         <v>199</v>
       </c>
-      <c r="P71" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="11">
+      <c r="P71" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8">
         <v>209</v>
       </c>
       <c r="S71" s="5">
@@ -7997,25 +7997,25 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K72" s="11">
-        <v>1</v>
-      </c>
-      <c r="L72" s="11">
-        <v>4</v>
-      </c>
-      <c r="M72" s="11">
+      <c r="K72" s="8">
+        <v>1</v>
+      </c>
+      <c r="L72" s="8">
+        <v>4</v>
+      </c>
+      <c r="M72" s="8">
         <v>7.9169999999999998</v>
       </c>
-      <c r="N72" s="11">
-        <v>2</v>
-      </c>
-      <c r="O72" s="11">
+      <c r="N72" s="8">
+        <v>2</v>
+      </c>
+      <c r="O72" s="8">
         <v>203</v>
       </c>
-      <c r="P72" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q72" s="11">
+      <c r="P72" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="8">
         <v>203</v>
       </c>
       <c r="S72" s="5">
@@ -8099,25 +8099,25 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="K73" s="11">
-        <v>2</v>
-      </c>
-      <c r="L73" s="11">
-        <v>3</v>
-      </c>
-      <c r="M73" s="11">
+      <c r="K73" s="8">
+        <v>2</v>
+      </c>
+      <c r="L73" s="8">
+        <v>3</v>
+      </c>
+      <c r="M73" s="8">
         <v>6.8570000000000002</v>
       </c>
-      <c r="N73" s="11">
-        <v>3</v>
-      </c>
-      <c r="O73" s="11">
+      <c r="N73" s="8">
+        <v>3</v>
+      </c>
+      <c r="O73" s="8">
         <v>200</v>
       </c>
-      <c r="P73" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q73" s="11">
+      <c r="P73" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="8">
         <v>201</v>
       </c>
       <c r="S73" s="5">
@@ -8201,25 +8201,25 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K74" s="11">
-        <v>2</v>
-      </c>
-      <c r="L74" s="11">
-        <v>4</v>
-      </c>
-      <c r="M74" s="11">
+      <c r="K74" s="8">
+        <v>2</v>
+      </c>
+      <c r="L74" s="8">
+        <v>4</v>
+      </c>
+      <c r="M74" s="8">
         <v>7.4429999999999996</v>
       </c>
-      <c r="N74" s="11">
-        <v>3</v>
-      </c>
-      <c r="O74" s="11">
+      <c r="N74" s="8">
+        <v>3</v>
+      </c>
+      <c r="O74" s="8">
         <v>202</v>
       </c>
-      <c r="P74" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q74" s="11">
+      <c r="P74" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="8">
         <v>203</v>
       </c>
       <c r="S74" s="5">
@@ -8303,25 +8303,25 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="K75" s="11">
-        <v>1</v>
-      </c>
-      <c r="L75" s="11">
-        <v>3</v>
-      </c>
-      <c r="M75" s="11">
+      <c r="K75" s="8">
+        <v>1</v>
+      </c>
+      <c r="L75" s="8">
+        <v>3</v>
+      </c>
+      <c r="M75" s="8">
         <v>6.4710000000000001</v>
       </c>
-      <c r="N75" s="11">
-        <v>2</v>
-      </c>
-      <c r="O75" s="11">
+      <c r="N75" s="8">
+        <v>2</v>
+      </c>
+      <c r="O75" s="8">
         <v>200</v>
       </c>
-      <c r="P75" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q75" s="11">
+      <c r="P75" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="8">
         <v>200</v>
       </c>
       <c r="S75" s="5">
@@ -8405,25 +8405,25 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="K76" s="11">
-        <v>3</v>
-      </c>
-      <c r="L76" s="11">
+      <c r="K76" s="8">
+        <v>3</v>
+      </c>
+      <c r="L76" s="8">
         <v>5</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M76" s="8">
         <v>7.7850000000000001</v>
       </c>
-      <c r="N76" s="11">
-        <v>3</v>
-      </c>
-      <c r="O76" s="11">
+      <c r="N76" s="8">
+        <v>3</v>
+      </c>
+      <c r="O76" s="8">
         <v>198</v>
       </c>
-      <c r="P76" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="11">
+      <c r="P76" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="8">
         <v>203</v>
       </c>
       <c r="S76" s="5">
@@ -8507,25 +8507,25 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="K77" s="11">
-        <v>2</v>
-      </c>
-      <c r="L77" s="11">
-        <v>4</v>
-      </c>
-      <c r="M77" s="11">
+      <c r="K77" s="8">
+        <v>2</v>
+      </c>
+      <c r="L77" s="8">
+        <v>4</v>
+      </c>
+      <c r="M77" s="8">
         <v>6.5990000000000002</v>
       </c>
-      <c r="N77" s="11">
-        <v>2</v>
-      </c>
-      <c r="O77" s="11">
+      <c r="N77" s="8">
+        <v>2</v>
+      </c>
+      <c r="O77" s="8">
         <v>210</v>
       </c>
-      <c r="P77" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="11">
+      <c r="P77" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="8">
         <v>223</v>
       </c>
       <c r="S77" s="5">
@@ -8609,25 +8609,25 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="K78" s="11">
-        <v>3</v>
-      </c>
-      <c r="L78" s="11">
-        <v>4</v>
-      </c>
-      <c r="M78" s="11">
+      <c r="K78" s="8">
+        <v>3</v>
+      </c>
+      <c r="L78" s="8">
+        <v>4</v>
+      </c>
+      <c r="M78" s="8">
         <v>6.88</v>
       </c>
-      <c r="N78" s="11">
-        <v>3</v>
-      </c>
-      <c r="O78" s="11">
+      <c r="N78" s="8">
+        <v>3</v>
+      </c>
+      <c r="O78" s="8">
         <v>207</v>
       </c>
-      <c r="P78" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="11">
+      <c r="P78" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="8">
         <v>217</v>
       </c>
       <c r="S78" s="5">
@@ -8711,25 +8711,25 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="K79" s="11">
-        <v>2</v>
-      </c>
-      <c r="L79" s="11">
-        <v>4</v>
-      </c>
-      <c r="M79" s="11">
+      <c r="K79" s="8">
+        <v>2</v>
+      </c>
+      <c r="L79" s="8">
+        <v>4</v>
+      </c>
+      <c r="M79" s="8">
         <v>6.3010000000000002</v>
       </c>
-      <c r="N79" s="11">
-        <v>2</v>
-      </c>
-      <c r="O79" s="11">
+      <c r="N79" s="8">
+        <v>2</v>
+      </c>
+      <c r="O79" s="8">
         <v>212</v>
       </c>
-      <c r="P79" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="11">
+      <c r="P79" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="8">
         <v>226</v>
       </c>
       <c r="S79" s="5">
@@ -8813,25 +8813,25 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="K80" s="11">
-        <v>2</v>
-      </c>
-      <c r="L80" s="11">
-        <v>4</v>
-      </c>
-      <c r="M80" s="11">
+      <c r="K80" s="8">
+        <v>2</v>
+      </c>
+      <c r="L80" s="8">
+        <v>4</v>
+      </c>
+      <c r="M80" s="8">
         <v>8.0440000000000005</v>
       </c>
-      <c r="N80" s="11">
-        <v>3</v>
-      </c>
-      <c r="O80" s="11">
+      <c r="N80" s="8">
+        <v>3</v>
+      </c>
+      <c r="O80" s="8">
         <v>204</v>
       </c>
-      <c r="P80" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q80" s="11">
+      <c r="P80" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="8">
         <v>205</v>
       </c>
       <c r="S80" s="5">
@@ -8915,25 +8915,25 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="K81" s="11">
-        <v>2</v>
-      </c>
-      <c r="L81" s="11">
+      <c r="K81" s="8">
+        <v>2</v>
+      </c>
+      <c r="L81" s="8">
         <v>5</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M81" s="8">
         <v>10.167</v>
       </c>
-      <c r="N81" s="11">
-        <v>3</v>
-      </c>
-      <c r="O81" s="11">
+      <c r="N81" s="8">
+        <v>3</v>
+      </c>
+      <c r="O81" s="8">
         <v>212</v>
       </c>
-      <c r="P81" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="11">
+      <c r="P81" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="8">
         <v>213</v>
       </c>
       <c r="S81" s="5">
@@ -9017,25 +9017,25 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K82" s="11">
-        <v>3</v>
-      </c>
-      <c r="L82" s="11">
+      <c r="K82" s="8">
+        <v>3</v>
+      </c>
+      <c r="L82" s="8">
         <v>5</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="8">
         <v>8.8729999999999993</v>
       </c>
-      <c r="N82" s="11">
-        <v>3</v>
-      </c>
-      <c r="O82" s="11">
+      <c r="N82" s="8">
+        <v>3</v>
+      </c>
+      <c r="O82" s="8">
         <v>211</v>
       </c>
-      <c r="P82" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="11">
+      <c r="P82" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8">
         <v>224</v>
       </c>
       <c r="S82" s="5">
@@ -9119,25 +9119,25 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="K83" s="11">
-        <v>1</v>
-      </c>
-      <c r="L83" s="11">
-        <v>2</v>
-      </c>
-      <c r="M83" s="11">
+      <c r="K83" s="8">
+        <v>1</v>
+      </c>
+      <c r="L83" s="8">
+        <v>2</v>
+      </c>
+      <c r="M83" s="8">
         <v>3.95</v>
       </c>
-      <c r="N83" s="11">
-        <v>2</v>
-      </c>
-      <c r="O83" s="11">
+      <c r="N83" s="8">
+        <v>2</v>
+      </c>
+      <c r="O83" s="8">
         <v>209</v>
       </c>
-      <c r="P83" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q83" s="11">
+      <c r="P83" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="8">
         <v>209</v>
       </c>
       <c r="S83" s="5">
@@ -9221,25 +9221,25 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="K84" s="11">
-        <v>1</v>
-      </c>
-      <c r="L84" s="11">
-        <v>4</v>
-      </c>
-      <c r="M84" s="11">
+      <c r="K84" s="8">
+        <v>1</v>
+      </c>
+      <c r="L84" s="8">
+        <v>4</v>
+      </c>
+      <c r="M84" s="8">
         <v>8.1440000000000001</v>
       </c>
-      <c r="N84" s="11">
-        <v>2</v>
-      </c>
-      <c r="O84" s="11">
+      <c r="N84" s="8">
+        <v>2</v>
+      </c>
+      <c r="O84" s="8">
         <v>212</v>
       </c>
-      <c r="P84" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q84" s="11">
+      <c r="P84" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="8">
         <v>212</v>
       </c>
       <c r="S84" s="5">
@@ -9323,25 +9323,25 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="K85" s="11">
-        <v>2</v>
-      </c>
-      <c r="L85" s="11">
-        <v>4</v>
-      </c>
-      <c r="M85" s="11">
+      <c r="K85" s="8">
+        <v>2</v>
+      </c>
+      <c r="L85" s="8">
+        <v>4</v>
+      </c>
+      <c r="M85" s="8">
         <v>7.8680000000000003</v>
       </c>
-      <c r="N85" s="11">
-        <v>3</v>
-      </c>
-      <c r="O85" s="11">
+      <c r="N85" s="8">
+        <v>3</v>
+      </c>
+      <c r="O85" s="8">
         <v>211</v>
       </c>
-      <c r="P85" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q85" s="11">
+      <c r="P85" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="8">
         <v>212</v>
       </c>
       <c r="S85" s="5">
@@ -9425,25 +9425,25 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="K86" s="11">
-        <v>1</v>
-      </c>
-      <c r="L86" s="11">
-        <v>4</v>
-      </c>
-      <c r="M86" s="11">
+      <c r="K86" s="8">
+        <v>1</v>
+      </c>
+      <c r="L86" s="8">
+        <v>4</v>
+      </c>
+      <c r="M86" s="8">
         <v>8.3040000000000003</v>
       </c>
-      <c r="N86" s="11">
-        <v>2</v>
-      </c>
-      <c r="O86" s="11">
+      <c r="N86" s="8">
+        <v>2</v>
+      </c>
+      <c r="O86" s="8">
         <v>211</v>
       </c>
-      <c r="P86" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q86" s="11">
+      <c r="P86" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="8">
         <v>211</v>
       </c>
       <c r="S86" s="5">
@@ -9527,25 +9527,25 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="K87" s="11">
-        <v>2</v>
-      </c>
-      <c r="L87" s="11">
+      <c r="K87" s="8">
+        <v>2</v>
+      </c>
+      <c r="L87" s="8">
         <v>5</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M87" s="8">
         <v>9.9190000000000005</v>
       </c>
-      <c r="N87" s="11">
-        <v>3</v>
-      </c>
-      <c r="O87" s="11">
+      <c r="N87" s="8">
+        <v>3</v>
+      </c>
+      <c r="O87" s="8">
         <v>209</v>
       </c>
-      <c r="P87" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q87" s="11">
+      <c r="P87" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q87" s="8">
         <v>210</v>
       </c>
       <c r="S87" s="5">
@@ -9629,25 +9629,25 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K88" s="11">
-        <v>3</v>
-      </c>
-      <c r="L88" s="11">
-        <v>4</v>
-      </c>
-      <c r="M88" s="11">
+      <c r="K88" s="8">
+        <v>3</v>
+      </c>
+      <c r="L88" s="8">
+        <v>4</v>
+      </c>
+      <c r="M88" s="8">
         <v>7.2469999999999999</v>
       </c>
-      <c r="N88" s="11">
-        <v>3</v>
-      </c>
-      <c r="O88" s="11">
+      <c r="N88" s="8">
+        <v>3</v>
+      </c>
+      <c r="O88" s="8">
         <v>198</v>
       </c>
-      <c r="P88" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="11">
+      <c r="P88" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="8">
         <v>212</v>
       </c>
       <c r="S88" s="5">
@@ -9731,25 +9731,25 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="K89" s="11">
-        <v>1</v>
-      </c>
-      <c r="L89" s="11">
-        <v>4</v>
-      </c>
-      <c r="M89" s="11">
+      <c r="K89" s="8">
+        <v>1</v>
+      </c>
+      <c r="L89" s="8">
+        <v>4</v>
+      </c>
+      <c r="M89" s="8">
         <v>8.0109999999999992</v>
       </c>
-      <c r="N89" s="11">
-        <v>2</v>
-      </c>
-      <c r="O89" s="11">
+      <c r="N89" s="8">
+        <v>2</v>
+      </c>
+      <c r="O89" s="8">
         <v>216</v>
       </c>
-      <c r="P89" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="11">
+      <c r="P89" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="8">
         <v>216</v>
       </c>
       <c r="S89" s="5">
@@ -9833,25 +9833,25 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="K90" s="11">
-        <v>2</v>
-      </c>
-      <c r="L90" s="11">
-        <v>3</v>
-      </c>
-      <c r="M90" s="11">
+      <c r="K90" s="8">
+        <v>2</v>
+      </c>
+      <c r="L90" s="8">
+        <v>3</v>
+      </c>
+      <c r="M90" s="8">
         <v>7.1360000000000001</v>
       </c>
-      <c r="N90" s="11">
-        <v>3</v>
-      </c>
-      <c r="O90" s="11">
+      <c r="N90" s="8">
+        <v>3</v>
+      </c>
+      <c r="O90" s="8">
         <v>202</v>
       </c>
-      <c r="P90" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q90" s="11">
+      <c r="P90" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="8">
         <v>203</v>
       </c>
       <c r="S90" s="5">
@@ -9935,25 +9935,25 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K91" s="11">
-        <v>2</v>
-      </c>
-      <c r="L91" s="11">
-        <v>4</v>
-      </c>
-      <c r="M91" s="11">
+      <c r="K91" s="8">
+        <v>2</v>
+      </c>
+      <c r="L91" s="8">
+        <v>4</v>
+      </c>
+      <c r="M91" s="8">
         <v>8.0709999999999997</v>
       </c>
-      <c r="N91" s="11">
-        <v>3</v>
-      </c>
-      <c r="O91" s="11">
+      <c r="N91" s="8">
+        <v>3</v>
+      </c>
+      <c r="O91" s="8">
         <v>219</v>
       </c>
-      <c r="P91" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q91" s="11">
+      <c r="P91" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="8">
         <v>223</v>
       </c>
       <c r="S91" s="5">
@@ -10037,25 +10037,25 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="K92" s="11">
-        <v>2</v>
-      </c>
-      <c r="L92" s="11">
-        <v>4</v>
-      </c>
-      <c r="M92" s="11">
+      <c r="K92" s="8">
+        <v>2</v>
+      </c>
+      <c r="L92" s="8">
+        <v>4</v>
+      </c>
+      <c r="M92" s="8">
         <v>8.1219999999999999</v>
       </c>
-      <c r="N92" s="11">
-        <v>3</v>
-      </c>
-      <c r="O92" s="11">
+      <c r="N92" s="8">
+        <v>3</v>
+      </c>
+      <c r="O92" s="8">
         <v>216</v>
       </c>
-      <c r="P92" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q92" s="11">
+      <c r="P92" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="8">
         <v>218</v>
       </c>
       <c r="S92" s="5">
@@ -10139,25 +10139,25 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="K93" s="11">
-        <v>1</v>
-      </c>
-      <c r="L93" s="11">
-        <v>3</v>
-      </c>
-      <c r="M93" s="11">
+      <c r="K93" s="8">
+        <v>1</v>
+      </c>
+      <c r="L93" s="8">
+        <v>3</v>
+      </c>
+      <c r="M93" s="8">
         <v>6.6349999999999998</v>
       </c>
-      <c r="N93" s="11">
-        <v>2</v>
-      </c>
-      <c r="O93" s="11">
+      <c r="N93" s="8">
+        <v>2</v>
+      </c>
+      <c r="O93" s="8">
         <v>211</v>
       </c>
-      <c r="P93" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q93" s="11">
+      <c r="P93" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="8">
         <v>211</v>
       </c>
       <c r="S93" s="5">
@@ -10241,25 +10241,25 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="K94" s="11">
-        <v>2</v>
-      </c>
-      <c r="L94" s="11">
+      <c r="K94" s="8">
+        <v>2</v>
+      </c>
+      <c r="L94" s="8">
         <v>5</v>
       </c>
-      <c r="M94" s="11">
+      <c r="M94" s="8">
         <v>9.3849999999999998</v>
       </c>
-      <c r="N94" s="11">
-        <v>3</v>
-      </c>
-      <c r="O94" s="11">
+      <c r="N94" s="8">
+        <v>3</v>
+      </c>
+      <c r="O94" s="8">
         <v>203</v>
       </c>
-      <c r="P94" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q94" s="11">
+      <c r="P94" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="8">
         <v>204</v>
       </c>
       <c r="S94" s="5">
@@ -10343,25 +10343,25 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="K95" s="11">
-        <v>3</v>
-      </c>
-      <c r="L95" s="11">
+      <c r="K95" s="8">
+        <v>3</v>
+      </c>
+      <c r="L95" s="8">
         <v>5</v>
       </c>
-      <c r="M95" s="11">
+      <c r="M95" s="8">
         <v>8.0340000000000007</v>
       </c>
-      <c r="N95" s="11">
-        <v>3</v>
-      </c>
-      <c r="O95" s="11">
+      <c r="N95" s="8">
+        <v>3</v>
+      </c>
+      <c r="O95" s="8">
         <v>204</v>
       </c>
-      <c r="P95" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="11">
+      <c r="P95" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="8">
         <v>221</v>
       </c>
       <c r="S95" s="5">
@@ -10445,25 +10445,25 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="K96" s="11">
-        <v>2</v>
-      </c>
-      <c r="L96" s="11">
-        <v>3</v>
-      </c>
-      <c r="M96" s="11">
+      <c r="K96" s="8">
+        <v>2</v>
+      </c>
+      <c r="L96" s="8">
+        <v>3</v>
+      </c>
+      <c r="M96" s="8">
         <v>5.9640000000000004</v>
       </c>
-      <c r="N96" s="11">
-        <v>3</v>
-      </c>
-      <c r="O96" s="11">
+      <c r="N96" s="8">
+        <v>3</v>
+      </c>
+      <c r="O96" s="8">
         <v>201</v>
       </c>
-      <c r="P96" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q96" s="11">
+      <c r="P96" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="8">
         <v>202</v>
       </c>
       <c r="S96" s="5">
@@ -10547,25 +10547,25 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K97" s="11">
-        <v>2</v>
-      </c>
-      <c r="L97" s="11">
-        <v>4</v>
-      </c>
-      <c r="M97" s="11">
+      <c r="K97" s="8">
+        <v>2</v>
+      </c>
+      <c r="L97" s="8">
+        <v>4</v>
+      </c>
+      <c r="M97" s="8">
         <v>7.9630000000000001</v>
       </c>
-      <c r="N97" s="11">
-        <v>3</v>
-      </c>
-      <c r="O97" s="11">
+      <c r="N97" s="8">
+        <v>3</v>
+      </c>
+      <c r="O97" s="8">
         <v>208</v>
       </c>
-      <c r="P97" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q97" s="11">
+      <c r="P97" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="8">
         <v>209</v>
       </c>
       <c r="S97" s="5">
@@ -10649,25 +10649,25 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="K98" s="11">
-        <v>2</v>
-      </c>
-      <c r="L98" s="11">
-        <v>4</v>
-      </c>
-      <c r="M98" s="11">
+      <c r="K98" s="8">
+        <v>2</v>
+      </c>
+      <c r="L98" s="8">
+        <v>4</v>
+      </c>
+      <c r="M98" s="8">
         <v>6.9989999999999997</v>
       </c>
-      <c r="N98" s="11">
-        <v>2</v>
-      </c>
-      <c r="O98" s="11">
+      <c r="N98" s="8">
+        <v>2</v>
+      </c>
+      <c r="O98" s="8">
         <v>215</v>
       </c>
-      <c r="P98" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="11">
+      <c r="P98" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="8">
         <v>220</v>
       </c>
       <c r="S98" s="5">
@@ -10751,25 +10751,25 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K99" s="11">
-        <v>3</v>
-      </c>
-      <c r="L99" s="11">
+      <c r="K99" s="8">
+        <v>3</v>
+      </c>
+      <c r="L99" s="8">
         <v>5</v>
       </c>
-      <c r="M99" s="11">
+      <c r="M99" s="8">
         <v>10.087</v>
       </c>
-      <c r="N99" s="11">
-        <v>3</v>
-      </c>
-      <c r="O99" s="11">
+      <c r="N99" s="8">
+        <v>3</v>
+      </c>
+      <c r="O99" s="8">
         <v>214</v>
       </c>
-      <c r="P99" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="11">
+      <c r="P99" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="8">
         <v>225</v>
       </c>
       <c r="S99" s="5">
@@ -10853,25 +10853,25 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="K100" s="11">
-        <v>2</v>
-      </c>
-      <c r="L100" s="11">
-        <v>3</v>
-      </c>
-      <c r="M100" s="11">
+      <c r="K100" s="8">
+        <v>2</v>
+      </c>
+      <c r="L100" s="8">
+        <v>3</v>
+      </c>
+      <c r="M100" s="8">
         <v>6.3710000000000004</v>
       </c>
-      <c r="N100" s="11">
-        <v>3</v>
-      </c>
-      <c r="O100" s="11">
+      <c r="N100" s="8">
+        <v>3</v>
+      </c>
+      <c r="O100" s="8">
         <v>212</v>
       </c>
-      <c r="P100" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q100" s="11">
+      <c r="P100" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="8">
         <v>213</v>
       </c>
       <c r="S100" s="5">
@@ -10955,25 +10955,25 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K101" s="11">
-        <v>2</v>
-      </c>
-      <c r="L101" s="11">
+      <c r="K101" s="8">
+        <v>2</v>
+      </c>
+      <c r="L101" s="8">
         <v>5</v>
       </c>
-      <c r="M101" s="11">
+      <c r="M101" s="8">
         <v>8.2460000000000004</v>
       </c>
-      <c r="N101" s="11">
-        <v>2</v>
-      </c>
-      <c r="O101" s="11">
+      <c r="N101" s="8">
+        <v>2</v>
+      </c>
+      <c r="O101" s="8">
         <v>212</v>
       </c>
-      <c r="P101" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="11">
+      <c r="P101" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="8">
         <v>221</v>
       </c>
       <c r="S101" s="5">
@@ -11057,25 +11057,25 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K102" s="11">
-        <v>2</v>
-      </c>
-      <c r="L102" s="11">
-        <v>4</v>
-      </c>
-      <c r="M102" s="11">
+      <c r="K102" s="8">
+        <v>2</v>
+      </c>
+      <c r="L102" s="8">
+        <v>4</v>
+      </c>
+      <c r="M102" s="8">
         <v>6.7450000000000001</v>
       </c>
-      <c r="N102" s="11">
-        <v>2</v>
-      </c>
-      <c r="O102" s="11">
+      <c r="N102" s="8">
+        <v>2</v>
+      </c>
+      <c r="O102" s="8">
         <v>206</v>
       </c>
-      <c r="P102" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="11">
+      <c r="P102" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="8">
         <v>215</v>
       </c>
       <c r="S102" s="5">
@@ -11153,7 +11153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8614094-8C5C-4035-905F-DBDB678D42BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
